--- a/school_excel_data/2学期期末/BAD_2学期期末_英語.xlsx
+++ b/school_excel_data/2学期期末/BAD_2学期期末_英語.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasuyasu\Desktop\school\refactor\2学期期末\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasuyasu\Desktop\school_excel_data\2学期期末\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6330,7 +6330,7 @@
   <dimension ref="A1:J1008"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A1002"/>
+      <selection activeCell="G2" sqref="G2:G1002"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6391,7 +6391,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H2">
         <v>120</v>
@@ -6423,7 +6423,7 @@
         <v>16</v>
       </c>
       <c r="G3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H3">
         <v>67</v>
@@ -6455,7 +6455,7 @@
         <v>19</v>
       </c>
       <c r="G4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H4">
         <v>61</v>
@@ -6487,7 +6487,7 @@
         <v>22</v>
       </c>
       <c r="G5">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H5">
         <v>47</v>
@@ -6519,7 +6519,7 @@
         <v>25</v>
       </c>
       <c r="G6">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H6">
         <v>150</v>
@@ -6551,7 +6551,7 @@
         <v>11</v>
       </c>
       <c r="G7">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H7">
         <v>74</v>
@@ -6583,7 +6583,7 @@
         <v>16</v>
       </c>
       <c r="G8">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H8">
         <v>65</v>
@@ -6615,7 +6615,7 @@
         <v>19</v>
       </c>
       <c r="G9">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H9">
         <v>82</v>
@@ -6647,7 +6647,7 @@
         <v>22</v>
       </c>
       <c r="G10">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H10">
         <v>39</v>
@@ -6679,7 +6679,7 @@
         <v>25</v>
       </c>
       <c r="G11">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H11">
         <v>-1</v>
@@ -6711,7 +6711,7 @@
         <v>11</v>
       </c>
       <c r="G12">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H12">
         <v>71</v>
@@ -6743,7 +6743,7 @@
         <v>16</v>
       </c>
       <c r="G13">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H13">
         <v>53</v>
@@ -6775,7 +6775,7 @@
         <v>19</v>
       </c>
       <c r="G14">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H14">
         <v>22</v>
@@ -6807,7 +6807,7 @@
         <v>22</v>
       </c>
       <c r="G15">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H15" t="s">
         <v>1979</v>
@@ -6839,7 +6839,7 @@
         <v>25</v>
       </c>
       <c r="G16">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H16">
         <v>76</v>
@@ -6871,7 +6871,7 @@
         <v>11</v>
       </c>
       <c r="G17">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H17">
         <v>86</v>
@@ -6903,7 +6903,7 @@
         <v>16</v>
       </c>
       <c r="G18">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H18">
         <v>75</v>
@@ -6935,7 +6935,7 @@
         <v>19</v>
       </c>
       <c r="G19">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H19">
         <v>40</v>
@@ -6967,7 +6967,7 @@
         <v>22</v>
       </c>
       <c r="G20">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H20">
         <v>42</v>
@@ -6999,7 +6999,7 @@
         <v>25</v>
       </c>
       <c r="G21">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H21">
         <v>69</v>
@@ -7031,7 +7031,7 @@
         <v>11</v>
       </c>
       <c r="G22">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H22">
         <v>78</v>
@@ -7063,7 +7063,7 @@
         <v>16</v>
       </c>
       <c r="G23">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H23">
         <v>-20</v>
@@ -7095,7 +7095,7 @@
         <v>19</v>
       </c>
       <c r="G24">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H24">
         <v>79</v>
@@ -7127,7 +7127,7 @@
         <v>22</v>
       </c>
       <c r="G25">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H25">
         <v>31</v>
@@ -7159,7 +7159,7 @@
         <v>25</v>
       </c>
       <c r="G26">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H26">
         <v>49</v>
@@ -7191,7 +7191,7 @@
         <v>11</v>
       </c>
       <c r="G27">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H27">
         <v>66</v>
@@ -7223,7 +7223,7 @@
         <v>16</v>
       </c>
       <c r="G28">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H28">
         <v>79</v>
@@ -7255,7 +7255,7 @@
         <v>19</v>
       </c>
       <c r="G29">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H29">
         <v>43</v>
@@ -7287,7 +7287,7 @@
         <v>22</v>
       </c>
       <c r="G30">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H30">
         <v>121</v>
@@ -7319,7 +7319,7 @@
         <v>25</v>
       </c>
       <c r="G31">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H31">
         <v>31</v>
@@ -7351,7 +7351,7 @@
         <v>11</v>
       </c>
       <c r="G32">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H32">
         <v>52</v>
@@ -7383,7 +7383,7 @@
         <v>16</v>
       </c>
       <c r="G33">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H33">
         <v>65</v>
@@ -7415,7 +7415,7 @@
         <v>19</v>
       </c>
       <c r="G34">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H34">
         <v>75</v>
@@ -7447,7 +7447,7 @@
         <v>22</v>
       </c>
       <c r="G35">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H35">
         <v>54</v>
@@ -7479,7 +7479,7 @@
         <v>25</v>
       </c>
       <c r="G36">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H36">
         <v>51</v>
@@ -7511,7 +7511,7 @@
         <v>11</v>
       </c>
       <c r="G37">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H37">
         <v>19</v>
@@ -7543,7 +7543,7 @@
         <v>16</v>
       </c>
       <c r="G38">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H38">
         <v>93</v>
@@ -7575,7 +7575,7 @@
         <v>19</v>
       </c>
       <c r="G39">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H39">
         <v>50</v>
@@ -7607,7 +7607,7 @@
         <v>22</v>
       </c>
       <c r="G40">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H40">
         <v>38</v>
@@ -7639,7 +7639,7 @@
         <v>25</v>
       </c>
       <c r="G41">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H41">
         <v>92</v>
@@ -7671,7 +7671,7 @@
         <v>11</v>
       </c>
       <c r="G42">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H42">
         <v>66</v>
@@ -7703,7 +7703,7 @@
         <v>16</v>
       </c>
       <c r="G43">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H43">
         <v>64</v>
@@ -7735,7 +7735,7 @@
         <v>19</v>
       </c>
       <c r="G44">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H44">
         <v>92</v>
@@ -7767,7 +7767,7 @@
         <v>22</v>
       </c>
       <c r="G45">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H45">
         <v>58</v>
@@ -7799,7 +7799,7 @@
         <v>25</v>
       </c>
       <c r="G46">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H46">
         <v>38</v>
@@ -7831,7 +7831,7 @@
         <v>11</v>
       </c>
       <c r="G47">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H47">
         <v>80</v>
@@ -7863,7 +7863,7 @@
         <v>16</v>
       </c>
       <c r="G48">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H48">
         <v>66</v>
@@ -7895,7 +7895,7 @@
         <v>19</v>
       </c>
       <c r="G49">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H49">
         <v>75</v>
@@ -7927,7 +7927,7 @@
         <v>22</v>
       </c>
       <c r="G50">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H50">
         <v>31</v>
@@ -7959,7 +7959,7 @@
         <v>25</v>
       </c>
       <c r="G51">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H51">
         <v>71</v>
@@ -7991,7 +7991,7 @@
         <v>11</v>
       </c>
       <c r="G52">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H52">
         <v>76</v>
@@ -8023,7 +8023,7 @@
         <v>16</v>
       </c>
       <c r="G53">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H53">
         <v>46</v>
@@ -8055,7 +8055,7 @@
         <v>19</v>
       </c>
       <c r="G54">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H54">
         <v>78</v>
@@ -8087,7 +8087,7 @@
         <v>22</v>
       </c>
       <c r="G55">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H55">
         <v>61</v>
@@ -8119,7 +8119,7 @@
         <v>25</v>
       </c>
       <c r="G56">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H56">
         <v>44</v>
@@ -8151,7 +8151,7 @@
         <v>11</v>
       </c>
       <c r="G57">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H57">
         <v>65</v>
@@ -8183,7 +8183,7 @@
         <v>16</v>
       </c>
       <c r="G58">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H58">
         <v>66</v>
@@ -8215,7 +8215,7 @@
         <v>19</v>
       </c>
       <c r="G59">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H59">
         <v>68</v>
@@ -8247,7 +8247,7 @@
         <v>22</v>
       </c>
       <c r="G60">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H60">
         <v>57</v>
@@ -8279,7 +8279,7 @@
         <v>25</v>
       </c>
       <c r="G61">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H61">
         <v>49</v>
@@ -8311,7 +8311,7 @@
         <v>11</v>
       </c>
       <c r="G62">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H62">
         <v>86</v>
@@ -8343,7 +8343,7 @@
         <v>16</v>
       </c>
       <c r="G63">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H63">
         <v>63</v>
@@ -8375,7 +8375,7 @@
         <v>19</v>
       </c>
       <c r="G64">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H64">
         <v>91</v>
@@ -8407,7 +8407,7 @@
         <v>22</v>
       </c>
       <c r="G65">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H65">
         <v>46</v>
@@ -8439,7 +8439,7 @@
         <v>25</v>
       </c>
       <c r="G66">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H66">
         <v>82</v>
@@ -8471,7 +8471,7 @@
         <v>11</v>
       </c>
       <c r="G67">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H67">
         <v>44</v>
@@ -8503,7 +8503,7 @@
         <v>16</v>
       </c>
       <c r="G68">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H68">
         <v>59</v>
@@ -8535,7 +8535,7 @@
         <v>19</v>
       </c>
       <c r="G69">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H69">
         <v>55</v>
@@ -8567,7 +8567,7 @@
         <v>22</v>
       </c>
       <c r="G70">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H70">
         <v>28</v>
@@ -8599,7 +8599,7 @@
         <v>25</v>
       </c>
       <c r="G71">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H71">
         <v>75</v>
@@ -8631,7 +8631,7 @@
         <v>11</v>
       </c>
       <c r="G72">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H72">
         <v>41</v>
@@ -8663,7 +8663,7 @@
         <v>16</v>
       </c>
       <c r="G73">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H73">
         <v>26</v>
@@ -8695,7 +8695,7 @@
         <v>19</v>
       </c>
       <c r="G74">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H74">
         <v>64</v>
@@ -8727,7 +8727,7 @@
         <v>22</v>
       </c>
       <c r="G75">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H75">
         <v>46</v>
@@ -8759,7 +8759,7 @@
         <v>25</v>
       </c>
       <c r="G76">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H76">
         <v>34</v>
@@ -8791,7 +8791,7 @@
         <v>11</v>
       </c>
       <c r="G77">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H77">
         <v>26</v>
@@ -8823,7 +8823,7 @@
         <v>16</v>
       </c>
       <c r="G78">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H78">
         <v>48</v>
@@ -8855,7 +8855,7 @@
         <v>19</v>
       </c>
       <c r="G79">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H79">
         <v>60</v>
@@ -8887,7 +8887,7 @@
         <v>22</v>
       </c>
       <c r="G80">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H80">
         <v>73</v>
@@ -8919,7 +8919,7 @@
         <v>25</v>
       </c>
       <c r="G81">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H81">
         <v>36</v>
@@ -8951,7 +8951,7 @@
         <v>11</v>
       </c>
       <c r="G82">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H82">
         <v>22</v>
@@ -8983,7 +8983,7 @@
         <v>16</v>
       </c>
       <c r="G83">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H83">
         <v>63</v>
@@ -9015,7 +9015,7 @@
         <v>19</v>
       </c>
       <c r="G84">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H84">
         <v>37</v>
@@ -9047,7 +9047,7 @@
         <v>22</v>
       </c>
       <c r="G85">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H85">
         <v>53</v>
@@ -9079,7 +9079,7 @@
         <v>25</v>
       </c>
       <c r="G86">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H86">
         <v>56</v>
@@ -9111,7 +9111,7 @@
         <v>11</v>
       </c>
       <c r="G87">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H87">
         <v>38</v>
@@ -9143,7 +9143,7 @@
         <v>16</v>
       </c>
       <c r="G88">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H88">
         <v>31</v>
@@ -9175,7 +9175,7 @@
         <v>19</v>
       </c>
       <c r="G89">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H89">
         <v>77</v>
@@ -9207,7 +9207,7 @@
         <v>22</v>
       </c>
       <c r="G90">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H90">
         <v>57</v>
@@ -9239,7 +9239,7 @@
         <v>25</v>
       </c>
       <c r="G91">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H91">
         <v>25</v>
@@ -9271,7 +9271,7 @@
         <v>11</v>
       </c>
       <c r="G92">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H92">
         <v>38</v>
@@ -9303,7 +9303,7 @@
         <v>16</v>
       </c>
       <c r="G93">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H93">
         <v>69</v>
@@ -9335,7 +9335,7 @@
         <v>19</v>
       </c>
       <c r="G94">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H94">
         <v>31</v>
@@ -9367,7 +9367,7 @@
         <v>22</v>
       </c>
       <c r="G95">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H95">
         <v>59</v>
@@ -9399,7 +9399,7 @@
         <v>25</v>
       </c>
       <c r="G96">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H96">
         <v>52</v>
@@ -9431,7 +9431,7 @@
         <v>11</v>
       </c>
       <c r="G97">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H97">
         <v>81</v>
@@ -9463,7 +9463,7 @@
         <v>16</v>
       </c>
       <c r="G98">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H98">
         <v>94</v>
@@ -9495,7 +9495,7 @@
         <v>19</v>
       </c>
       <c r="G99">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H99">
         <v>79</v>
@@ -9527,7 +9527,7 @@
         <v>22</v>
       </c>
       <c r="G100">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H100">
         <v>65</v>
@@ -9559,7 +9559,7 @@
         <v>25</v>
       </c>
       <c r="G101">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H101">
         <v>40</v>
@@ -9591,7 +9591,7 @@
         <v>11</v>
       </c>
       <c r="G102">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H102">
         <v>69</v>
@@ -9623,7 +9623,7 @@
         <v>16</v>
       </c>
       <c r="G103">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H103">
         <v>79</v>
@@ -9655,7 +9655,7 @@
         <v>19</v>
       </c>
       <c r="G104">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H104">
         <v>74</v>
@@ -9687,7 +9687,7 @@
         <v>22</v>
       </c>
       <c r="G105">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H105">
         <v>71</v>
@@ -9719,7 +9719,7 @@
         <v>25</v>
       </c>
       <c r="G106">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H106">
         <v>35</v>
@@ -9751,7 +9751,7 @@
         <v>11</v>
       </c>
       <c r="G107">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H107">
         <v>54</v>
@@ -9783,7 +9783,7 @@
         <v>16</v>
       </c>
       <c r="G108">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H108">
         <v>38</v>
@@ -9815,7 +9815,7 @@
         <v>19</v>
       </c>
       <c r="G109">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H109">
         <v>53</v>
@@ -9847,7 +9847,7 @@
         <v>22</v>
       </c>
       <c r="G110">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H110">
         <v>92</v>
@@ -9879,7 +9879,7 @@
         <v>25</v>
       </c>
       <c r="G111">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H111">
         <v>62</v>
@@ -9911,7 +9911,7 @@
         <v>11</v>
       </c>
       <c r="G112">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H112">
         <v>43</v>
@@ -9943,7 +9943,7 @@
         <v>16</v>
       </c>
       <c r="G113">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H113">
         <v>53</v>
@@ -9975,7 +9975,7 @@
         <v>19</v>
       </c>
       <c r="G114">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H114">
         <v>58</v>
@@ -10007,7 +10007,7 @@
         <v>22</v>
       </c>
       <c r="G115">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H115">
         <v>23</v>
@@ -10039,7 +10039,7 @@
         <v>25</v>
       </c>
       <c r="G116">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H116">
         <v>42</v>
@@ -10071,7 +10071,7 @@
         <v>11</v>
       </c>
       <c r="G117">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H117">
         <v>78</v>
@@ -10103,7 +10103,7 @@
         <v>16</v>
       </c>
       <c r="G118">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H118">
         <v>40</v>
@@ -10135,7 +10135,7 @@
         <v>19</v>
       </c>
       <c r="G119">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H119">
         <v>61</v>
@@ -10167,7 +10167,7 @@
         <v>22</v>
       </c>
       <c r="G120">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H120">
         <v>19</v>
@@ -10199,7 +10199,7 @@
         <v>25</v>
       </c>
       <c r="G121">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H121">
         <v>88</v>
@@ -10231,7 +10231,7 @@
         <v>11</v>
       </c>
       <c r="G122">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H122">
         <v>97</v>
@@ -10263,7 +10263,7 @@
         <v>16</v>
       </c>
       <c r="G123">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H123">
         <v>54</v>
@@ -10295,7 +10295,7 @@
         <v>19</v>
       </c>
       <c r="G124">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H124">
         <v>68</v>
@@ -10327,7 +10327,7 @@
         <v>22</v>
       </c>
       <c r="G125">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H125">
         <v>90</v>
@@ -10359,7 +10359,7 @@
         <v>25</v>
       </c>
       <c r="G126">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H126">
         <v>64</v>
@@ -10391,7 +10391,7 @@
         <v>11</v>
       </c>
       <c r="G127">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H127">
         <v>67</v>
@@ -10423,7 +10423,7 @@
         <v>16</v>
       </c>
       <c r="G128">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H128">
         <v>66</v>
@@ -10455,7 +10455,7 @@
         <v>19</v>
       </c>
       <c r="G129">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H129">
         <v>90</v>
@@ -10487,7 +10487,7 @@
         <v>22</v>
       </c>
       <c r="G130">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H130">
         <v>71</v>
@@ -10519,7 +10519,7 @@
         <v>25</v>
       </c>
       <c r="G131">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H131">
         <v>52</v>
@@ -10551,7 +10551,7 @@
         <v>11</v>
       </c>
       <c r="G132">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H132">
         <v>92</v>
@@ -10583,7 +10583,7 @@
         <v>16</v>
       </c>
       <c r="G133">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H133">
         <v>51</v>
@@ -10615,7 +10615,7 @@
         <v>19</v>
       </c>
       <c r="G134">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H134">
         <v>41</v>
@@ -10647,7 +10647,7 @@
         <v>22</v>
       </c>
       <c r="G135">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H135">
         <v>64</v>
@@ -10679,7 +10679,7 @@
         <v>25</v>
       </c>
       <c r="G136">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H136">
         <v>75</v>
@@ -10711,7 +10711,7 @@
         <v>11</v>
       </c>
       <c r="G137">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H137">
         <v>39</v>
@@ -10743,7 +10743,7 @@
         <v>16</v>
       </c>
       <c r="G138">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H138">
         <v>78</v>
@@ -10775,7 +10775,7 @@
         <v>19</v>
       </c>
       <c r="G139">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H139">
         <v>44</v>
@@ -10807,7 +10807,7 @@
         <v>22</v>
       </c>
       <c r="G140">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H140">
         <v>36</v>
@@ -10839,7 +10839,7 @@
         <v>25</v>
       </c>
       <c r="G141">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H141">
         <v>67</v>
@@ -10871,7 +10871,7 @@
         <v>11</v>
       </c>
       <c r="G142">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H142">
         <v>76</v>
@@ -10903,7 +10903,7 @@
         <v>16</v>
       </c>
       <c r="G143">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H143">
         <v>39</v>
@@ -10935,7 +10935,7 @@
         <v>19</v>
       </c>
       <c r="G144">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H144">
         <v>83</v>
@@ -10967,7 +10967,7 @@
         <v>22</v>
       </c>
       <c r="G145">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H145">
         <v>20</v>
@@ -10999,7 +10999,7 @@
         <v>25</v>
       </c>
       <c r="G146">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H146">
         <v>50</v>
@@ -11031,7 +11031,7 @@
         <v>11</v>
       </c>
       <c r="G147">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H147">
         <v>95</v>
@@ -11063,7 +11063,7 @@
         <v>16</v>
       </c>
       <c r="G148">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H148">
         <v>63</v>
@@ -11095,7 +11095,7 @@
         <v>19</v>
       </c>
       <c r="G149">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H149">
         <v>50</v>
@@ -11127,7 +11127,7 @@
         <v>22</v>
       </c>
       <c r="G150">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H150">
         <v>56</v>
@@ -11159,7 +11159,7 @@
         <v>25</v>
       </c>
       <c r="G151">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H151">
         <v>97</v>
@@ -11191,7 +11191,7 @@
         <v>11</v>
       </c>
       <c r="G152">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H152">
         <v>70</v>
@@ -11223,7 +11223,7 @@
         <v>16</v>
       </c>
       <c r="G153">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H153">
         <v>97</v>
@@ -11255,7 +11255,7 @@
         <v>19</v>
       </c>
       <c r="G154">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H154">
         <v>100</v>
@@ -11287,7 +11287,7 @@
         <v>22</v>
       </c>
       <c r="G155">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H155">
         <v>71</v>
@@ -11319,7 +11319,7 @@
         <v>25</v>
       </c>
       <c r="G156">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H156">
         <v>38</v>
@@ -11351,7 +11351,7 @@
         <v>11</v>
       </c>
       <c r="G157">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H157">
         <v>63</v>
@@ -11383,7 +11383,7 @@
         <v>16</v>
       </c>
       <c r="G158">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H158">
         <v>39</v>
@@ -11415,7 +11415,7 @@
         <v>19</v>
       </c>
       <c r="G159">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H159">
         <v>51</v>
@@ -11447,7 +11447,7 @@
         <v>22</v>
       </c>
       <c r="G160">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H160">
         <v>72</v>
@@ -11479,7 +11479,7 @@
         <v>25</v>
       </c>
       <c r="G161">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H161">
         <v>58</v>
@@ -11511,7 +11511,7 @@
         <v>11</v>
       </c>
       <c r="G162">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H162">
         <v>80</v>
@@ -11543,7 +11543,7 @@
         <v>16</v>
       </c>
       <c r="G163">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H163">
         <v>82</v>
@@ -11575,7 +11575,7 @@
         <v>19</v>
       </c>
       <c r="G164">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H164">
         <v>87</v>
@@ -11607,7 +11607,7 @@
         <v>22</v>
       </c>
       <c r="G165">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H165">
         <v>100</v>
@@ -11639,7 +11639,7 @@
         <v>25</v>
       </c>
       <c r="G166">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H166">
         <v>78</v>
@@ -11671,7 +11671,7 @@
         <v>11</v>
       </c>
       <c r="G167">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H167">
         <v>34</v>
@@ -11703,7 +11703,7 @@
         <v>16</v>
       </c>
       <c r="G168">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H168">
         <v>66</v>
@@ -11735,7 +11735,7 @@
         <v>19</v>
       </c>
       <c r="G169">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H169">
         <v>42</v>
@@ -11767,7 +11767,7 @@
         <v>22</v>
       </c>
       <c r="G170">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H170">
         <v>17</v>
@@ -11799,7 +11799,7 @@
         <v>25</v>
       </c>
       <c r="G171">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H171">
         <v>90</v>
@@ -11831,7 +11831,7 @@
         <v>11</v>
       </c>
       <c r="G172">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H172">
         <v>44</v>
@@ -11863,7 +11863,7 @@
         <v>16</v>
       </c>
       <c r="G173">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H173">
         <v>74</v>
@@ -11895,7 +11895,7 @@
         <v>19</v>
       </c>
       <c r="G174">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H174">
         <v>56</v>
@@ -11927,7 +11927,7 @@
         <v>22</v>
       </c>
       <c r="G175">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H175">
         <v>53</v>
@@ -11959,7 +11959,7 @@
         <v>25</v>
       </c>
       <c r="G176">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H176">
         <v>61</v>
@@ -11991,7 +11991,7 @@
         <v>11</v>
       </c>
       <c r="G177">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H177">
         <v>56</v>
@@ -12023,7 +12023,7 @@
         <v>16</v>
       </c>
       <c r="G178">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H178">
         <v>56</v>
@@ -12055,7 +12055,7 @@
         <v>19</v>
       </c>
       <c r="G179">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H179">
         <v>71</v>
@@ -12087,7 +12087,7 @@
         <v>22</v>
       </c>
       <c r="G180">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H180">
         <v>72</v>
@@ -12119,7 +12119,7 @@
         <v>25</v>
       </c>
       <c r="G181">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H181">
         <v>38</v>
@@ -12151,7 +12151,7 @@
         <v>11</v>
       </c>
       <c r="G182">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H182">
         <v>76</v>
@@ -12183,7 +12183,7 @@
         <v>16</v>
       </c>
       <c r="G183">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H183">
         <v>26</v>
@@ -12215,7 +12215,7 @@
         <v>19</v>
       </c>
       <c r="G184">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H184">
         <v>72</v>
@@ -12247,7 +12247,7 @@
         <v>22</v>
       </c>
       <c r="G185">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H185">
         <v>51</v>
@@ -12279,7 +12279,7 @@
         <v>25</v>
       </c>
       <c r="G186">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H186">
         <v>45</v>
@@ -12311,7 +12311,7 @@
         <v>11</v>
       </c>
       <c r="G187">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H187">
         <v>43</v>
@@ -12343,7 +12343,7 @@
         <v>16</v>
       </c>
       <c r="G188">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H188">
         <v>62</v>
@@ -12375,7 +12375,7 @@
         <v>19</v>
       </c>
       <c r="G189">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H189">
         <v>100</v>
@@ -12407,7 +12407,7 @@
         <v>22</v>
       </c>
       <c r="G190">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H190">
         <v>61</v>
@@ -12439,7 +12439,7 @@
         <v>25</v>
       </c>
       <c r="G191">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H191">
         <v>55</v>
@@ -12471,7 +12471,7 @@
         <v>11</v>
       </c>
       <c r="G192">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H192">
         <v>47</v>
@@ -12503,7 +12503,7 @@
         <v>16</v>
       </c>
       <c r="G193">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H193">
         <v>96</v>
@@ -12535,7 +12535,7 @@
         <v>19</v>
       </c>
       <c r="G194">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H194">
         <v>64</v>
@@ -12567,7 +12567,7 @@
         <v>22</v>
       </c>
       <c r="G195">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H195">
         <v>88</v>
@@ -12599,7 +12599,7 @@
         <v>25</v>
       </c>
       <c r="G196">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H196">
         <v>70</v>
@@ -12631,7 +12631,7 @@
         <v>11</v>
       </c>
       <c r="G197">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H197">
         <v>91</v>
@@ -12663,7 +12663,7 @@
         <v>16</v>
       </c>
       <c r="G198">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H198">
         <v>48</v>
@@ -12695,7 +12695,7 @@
         <v>19</v>
       </c>
       <c r="G199">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H199">
         <v>33</v>
@@ -12727,7 +12727,7 @@
         <v>22</v>
       </c>
       <c r="G200">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H200">
         <v>64</v>
@@ -12759,7 +12759,7 @@
         <v>25</v>
       </c>
       <c r="G201">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H201">
         <v>95</v>
@@ -12791,7 +12791,7 @@
         <v>11</v>
       </c>
       <c r="G202">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H202">
         <v>64</v>
@@ -12823,7 +12823,7 @@
         <v>16</v>
       </c>
       <c r="G203">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H203">
         <v>10</v>
@@ -12855,7 +12855,7 @@
         <v>19</v>
       </c>
       <c r="G204">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H204">
         <v>60</v>
@@ -12887,7 +12887,7 @@
         <v>22</v>
       </c>
       <c r="G205">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H205">
         <v>56</v>
@@ -12919,7 +12919,7 @@
         <v>25</v>
       </c>
       <c r="G206">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H206">
         <v>33</v>
@@ -12951,7 +12951,7 @@
         <v>11</v>
       </c>
       <c r="G207">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H207">
         <v>56</v>
@@ -12983,7 +12983,7 @@
         <v>16</v>
       </c>
       <c r="G208">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H208">
         <v>48</v>
@@ -13015,7 +13015,7 @@
         <v>19</v>
       </c>
       <c r="G209">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H209">
         <v>67</v>
@@ -13047,7 +13047,7 @@
         <v>22</v>
       </c>
       <c r="G210">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H210">
         <v>79</v>
@@ -13079,7 +13079,7 @@
         <v>25</v>
       </c>
       <c r="G211">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H211">
         <v>76</v>
@@ -13111,7 +13111,7 @@
         <v>11</v>
       </c>
       <c r="G212">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H212">
         <v>50</v>
@@ -13143,7 +13143,7 @@
         <v>16</v>
       </c>
       <c r="G213">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H213">
         <v>72</v>
@@ -13175,7 +13175,7 @@
         <v>19</v>
       </c>
       <c r="G214">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H214">
         <v>40</v>
@@ -13207,7 +13207,7 @@
         <v>22</v>
       </c>
       <c r="G215">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H215">
         <v>36</v>
@@ -13239,7 +13239,7 @@
         <v>25</v>
       </c>
       <c r="G216">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H216">
         <v>55</v>
@@ -13271,7 +13271,7 @@
         <v>11</v>
       </c>
       <c r="G217">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H217">
         <v>46</v>
@@ -13303,7 +13303,7 @@
         <v>16</v>
       </c>
       <c r="G218">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H218">
         <v>58</v>
@@ -13335,7 +13335,7 @@
         <v>19</v>
       </c>
       <c r="G219">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H219">
         <v>61</v>
@@ -13367,7 +13367,7 @@
         <v>22</v>
       </c>
       <c r="G220">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H220">
         <v>84</v>
@@ -13399,7 +13399,7 @@
         <v>25</v>
       </c>
       <c r="G221">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H221">
         <v>45</v>
@@ -13431,7 +13431,7 @@
         <v>11</v>
       </c>
       <c r="G222">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H222">
         <v>66</v>
@@ -13463,7 +13463,7 @@
         <v>16</v>
       </c>
       <c r="G223">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H223">
         <v>49</v>
@@ -13495,7 +13495,7 @@
         <v>19</v>
       </c>
       <c r="G224">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H224">
         <v>43</v>
@@ -13527,7 +13527,7 @@
         <v>22</v>
       </c>
       <c r="G225">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H225">
         <v>53</v>
@@ -13559,7 +13559,7 @@
         <v>25</v>
       </c>
       <c r="G226">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H226">
         <v>75</v>
@@ -13591,7 +13591,7 @@
         <v>11</v>
       </c>
       <c r="G227">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H227">
         <v>30</v>
@@ -13623,7 +13623,7 @@
         <v>16</v>
       </c>
       <c r="G228">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H228">
         <v>53</v>
@@ -13655,7 +13655,7 @@
         <v>19</v>
       </c>
       <c r="G229">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H229">
         <v>42</v>
@@ -13687,7 +13687,7 @@
         <v>22</v>
       </c>
       <c r="G230">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H230">
         <v>65</v>
@@ -13719,7 +13719,7 @@
         <v>25</v>
       </c>
       <c r="G231">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H231">
         <v>84</v>
@@ -13751,7 +13751,7 @@
         <v>11</v>
       </c>
       <c r="G232">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H232">
         <v>61</v>
@@ -13783,7 +13783,7 @@
         <v>16</v>
       </c>
       <c r="G233">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H233">
         <v>60</v>
@@ -13815,7 +13815,7 @@
         <v>19</v>
       </c>
       <c r="G234">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H234">
         <v>67</v>
@@ -13847,7 +13847,7 @@
         <v>22</v>
       </c>
       <c r="G235">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H235">
         <v>67</v>
@@ -13879,7 +13879,7 @@
         <v>25</v>
       </c>
       <c r="G236">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H236">
         <v>87</v>
@@ -13911,7 +13911,7 @@
         <v>11</v>
       </c>
       <c r="G237">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H237">
         <v>78</v>
@@ -13943,7 +13943,7 @@
         <v>16</v>
       </c>
       <c r="G238">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H238">
         <v>79</v>
@@ -13975,7 +13975,7 @@
         <v>19</v>
       </c>
       <c r="G239">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H239">
         <v>59</v>
@@ -14007,7 +14007,7 @@
         <v>22</v>
       </c>
       <c r="G240">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H240">
         <v>43</v>
@@ -14039,7 +14039,7 @@
         <v>25</v>
       </c>
       <c r="G241">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H241">
         <v>74</v>
@@ -14071,7 +14071,7 @@
         <v>11</v>
       </c>
       <c r="G242">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H242">
         <v>84</v>
@@ -14103,7 +14103,7 @@
         <v>16</v>
       </c>
       <c r="G243">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H243">
         <v>51</v>
@@ -14135,7 +14135,7 @@
         <v>19</v>
       </c>
       <c r="G244">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H244">
         <v>33</v>
@@ -14167,7 +14167,7 @@
         <v>22</v>
       </c>
       <c r="G245">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H245">
         <v>85</v>
@@ -14199,7 +14199,7 @@
         <v>25</v>
       </c>
       <c r="G246">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H246">
         <v>86</v>
@@ -14231,7 +14231,7 @@
         <v>11</v>
       </c>
       <c r="G247">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H247">
         <v>42</v>
@@ -14263,7 +14263,7 @@
         <v>16</v>
       </c>
       <c r="G248">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H248">
         <v>72</v>
@@ -14295,7 +14295,7 @@
         <v>19</v>
       </c>
       <c r="G249">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H249">
         <v>68</v>
@@ -14327,7 +14327,7 @@
         <v>22</v>
       </c>
       <c r="G250">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H250">
         <v>52</v>
@@ -14359,7 +14359,7 @@
         <v>25</v>
       </c>
       <c r="G251">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H251">
         <v>66</v>
@@ -14391,7 +14391,7 @@
         <v>11</v>
       </c>
       <c r="G252">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H252">
         <v>69</v>
@@ -14423,7 +14423,7 @@
         <v>16</v>
       </c>
       <c r="G253">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H253">
         <v>66</v>
@@ -14455,7 +14455,7 @@
         <v>19</v>
       </c>
       <c r="G254">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H254">
         <v>74</v>
@@ -14487,7 +14487,7 @@
         <v>22</v>
       </c>
       <c r="G255">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H255">
         <v>100</v>
@@ -14519,7 +14519,7 @@
         <v>25</v>
       </c>
       <c r="G256">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H256">
         <v>60</v>
@@ -14551,7 +14551,7 @@
         <v>11</v>
       </c>
       <c r="G257">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H257">
         <v>79</v>
@@ -14583,7 +14583,7 @@
         <v>16</v>
       </c>
       <c r="G258">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H258">
         <v>41</v>
@@ -14615,7 +14615,7 @@
         <v>19</v>
       </c>
       <c r="G259">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H259">
         <v>65</v>
@@ -14647,7 +14647,7 @@
         <v>22</v>
       </c>
       <c r="G260">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H260">
         <v>42</v>
@@ -14679,7 +14679,7 @@
         <v>25</v>
       </c>
       <c r="G261">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H261">
         <v>60</v>
@@ -14711,7 +14711,7 @@
         <v>11</v>
       </c>
       <c r="G262">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H262">
         <v>56</v>
@@ -14743,7 +14743,7 @@
         <v>16</v>
       </c>
       <c r="G263">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H263">
         <v>41</v>
@@ -14775,7 +14775,7 @@
         <v>19</v>
       </c>
       <c r="G264">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H264">
         <v>59</v>
@@ -14807,7 +14807,7 @@
         <v>22</v>
       </c>
       <c r="G265">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H265">
         <v>57</v>
@@ -14839,7 +14839,7 @@
         <v>25</v>
       </c>
       <c r="G266">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H266">
         <v>52</v>
@@ -14871,7 +14871,7 @@
         <v>11</v>
       </c>
       <c r="G267">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H267">
         <v>62</v>
@@ -14903,7 +14903,7 @@
         <v>16</v>
       </c>
       <c r="G268">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H268">
         <v>88</v>
@@ -14935,7 +14935,7 @@
         <v>19</v>
       </c>
       <c r="G269">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H269">
         <v>37</v>
@@ -14967,7 +14967,7 @@
         <v>22</v>
       </c>
       <c r="G270">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H270">
         <v>90</v>
@@ -14999,7 +14999,7 @@
         <v>25</v>
       </c>
       <c r="G271">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H271">
         <v>67</v>
@@ -15031,7 +15031,7 @@
         <v>11</v>
       </c>
       <c r="G272">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H272">
         <v>94</v>
@@ -15063,7 +15063,7 @@
         <v>16</v>
       </c>
       <c r="G273">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H273">
         <v>39</v>
@@ -15095,7 +15095,7 @@
         <v>19</v>
       </c>
       <c r="G274">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H274">
         <v>46</v>
@@ -15127,7 +15127,7 @@
         <v>22</v>
       </c>
       <c r="G275">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H275">
         <v>54</v>
@@ -15159,7 +15159,7 @@
         <v>25</v>
       </c>
       <c r="G276">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H276">
         <v>84</v>
@@ -15191,7 +15191,7 @@
         <v>11</v>
       </c>
       <c r="G277">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H277">
         <v>62</v>
@@ -15223,7 +15223,7 @@
         <v>16</v>
       </c>
       <c r="G278">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H278">
         <v>73</v>
@@ -15255,7 +15255,7 @@
         <v>19</v>
       </c>
       <c r="G279">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H279">
         <v>73</v>
@@ -15287,7 +15287,7 @@
         <v>22</v>
       </c>
       <c r="G280">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H280">
         <v>67</v>
@@ -15319,7 +15319,7 @@
         <v>25</v>
       </c>
       <c r="G281">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H281">
         <v>67</v>
@@ -15351,7 +15351,7 @@
         <v>11</v>
       </c>
       <c r="G282">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H282">
         <v>69</v>
@@ -15383,7 +15383,7 @@
         <v>16</v>
       </c>
       <c r="G283">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H283">
         <v>52</v>
@@ -15415,7 +15415,7 @@
         <v>19</v>
       </c>
       <c r="G284">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H284">
         <v>72</v>
@@ -15447,7 +15447,7 @@
         <v>22</v>
       </c>
       <c r="G285">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H285">
         <v>68</v>
@@ -15479,7 +15479,7 @@
         <v>25</v>
       </c>
       <c r="G286">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H286">
         <v>59</v>
@@ -15511,7 +15511,7 @@
         <v>11</v>
       </c>
       <c r="G287">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H287">
         <v>81</v>
@@ -15543,7 +15543,7 @@
         <v>16</v>
       </c>
       <c r="G288">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H288">
         <v>97</v>
@@ -15575,7 +15575,7 @@
         <v>19</v>
       </c>
       <c r="G289">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H289">
         <v>43</v>
@@ -15607,7 +15607,7 @@
         <v>22</v>
       </c>
       <c r="G290">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H290">
         <v>54</v>
@@ -15639,7 +15639,7 @@
         <v>25</v>
       </c>
       <c r="G291">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H291">
         <v>14</v>
@@ -15671,7 +15671,7 @@
         <v>11</v>
       </c>
       <c r="G292">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H292">
         <v>44</v>
@@ -15703,7 +15703,7 @@
         <v>16</v>
       </c>
       <c r="G293">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H293">
         <v>50</v>
@@ -15735,7 +15735,7 @@
         <v>19</v>
       </c>
       <c r="G294">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H294">
         <v>52</v>
@@ -15767,7 +15767,7 @@
         <v>22</v>
       </c>
       <c r="G295">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H295">
         <v>29</v>
@@ -15799,7 +15799,7 @@
         <v>25</v>
       </c>
       <c r="G296">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H296">
         <v>100</v>
@@ -15831,7 +15831,7 @@
         <v>11</v>
       </c>
       <c r="G297">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H297">
         <v>77</v>
@@ -15863,7 +15863,7 @@
         <v>16</v>
       </c>
       <c r="G298">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H298">
         <v>44</v>
@@ -15895,7 +15895,7 @@
         <v>19</v>
       </c>
       <c r="G299">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H299">
         <v>46</v>
@@ -15927,7 +15927,7 @@
         <v>22</v>
       </c>
       <c r="G300">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H300">
         <v>45</v>
@@ -15959,7 +15959,7 @@
         <v>25</v>
       </c>
       <c r="G301">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H301">
         <v>34</v>
@@ -15991,7 +15991,7 @@
         <v>11</v>
       </c>
       <c r="G302">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H302">
         <v>79</v>
@@ -16023,7 +16023,7 @@
         <v>16</v>
       </c>
       <c r="G303">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H303">
         <v>28</v>
@@ -16055,7 +16055,7 @@
         <v>19</v>
       </c>
       <c r="G304">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H304">
         <v>40</v>
@@ -16087,7 +16087,7 @@
         <v>22</v>
       </c>
       <c r="G305">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H305">
         <v>41</v>
@@ -16119,7 +16119,7 @@
         <v>25</v>
       </c>
       <c r="G306">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H306">
         <v>100</v>
@@ -16151,7 +16151,7 @@
         <v>11</v>
       </c>
       <c r="G307">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H307">
         <v>100</v>
@@ -16183,7 +16183,7 @@
         <v>16</v>
       </c>
       <c r="G308">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H308">
         <v>37</v>
@@ -16215,7 +16215,7 @@
         <v>19</v>
       </c>
       <c r="G309">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H309">
         <v>36</v>
@@ -16247,7 +16247,7 @@
         <v>22</v>
       </c>
       <c r="G310">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H310">
         <v>76</v>
@@ -16279,7 +16279,7 @@
         <v>25</v>
       </c>
       <c r="G311">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H311">
         <v>85</v>
@@ -16311,7 +16311,7 @@
         <v>11</v>
       </c>
       <c r="G312">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H312">
         <v>47</v>
@@ -16343,7 +16343,7 @@
         <v>16</v>
       </c>
       <c r="G313">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H313">
         <v>55</v>
@@ -16375,7 +16375,7 @@
         <v>19</v>
       </c>
       <c r="G314">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H314">
         <v>71</v>
@@ -16407,7 +16407,7 @@
         <v>22</v>
       </c>
       <c r="G315">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H315">
         <v>47</v>
@@ -16439,7 +16439,7 @@
         <v>25</v>
       </c>
       <c r="G316">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H316">
         <v>96</v>
@@ -16471,7 +16471,7 @@
         <v>11</v>
       </c>
       <c r="G317">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H317">
         <v>61</v>
@@ -16503,7 +16503,7 @@
         <v>16</v>
       </c>
       <c r="G318">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H318">
         <v>70</v>
@@ -16535,7 +16535,7 @@
         <v>19</v>
       </c>
       <c r="G319">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H319">
         <v>37</v>
@@ -16567,7 +16567,7 @@
         <v>22</v>
       </c>
       <c r="G320">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H320">
         <v>86</v>
@@ -16599,7 +16599,7 @@
         <v>25</v>
       </c>
       <c r="G321">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H321">
         <v>74</v>
@@ -16631,7 +16631,7 @@
         <v>11</v>
       </c>
       <c r="G322">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H322">
         <v>86</v>
@@ -16663,7 +16663,7 @@
         <v>16</v>
       </c>
       <c r="G323">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H323">
         <v>85</v>
@@ -16695,7 +16695,7 @@
         <v>19</v>
       </c>
       <c r="G324">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H324">
         <v>76</v>
@@ -16727,7 +16727,7 @@
         <v>22</v>
       </c>
       <c r="G325">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H325">
         <v>79</v>
@@ -16759,7 +16759,7 @@
         <v>25</v>
       </c>
       <c r="G326">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H326">
         <v>61</v>
@@ -16791,7 +16791,7 @@
         <v>11</v>
       </c>
       <c r="G327">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H327">
         <v>56</v>
@@ -16823,7 +16823,7 @@
         <v>16</v>
       </c>
       <c r="G328">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H328">
         <v>38</v>
@@ -16855,7 +16855,7 @@
         <v>19</v>
       </c>
       <c r="G329">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H329">
         <v>69</v>
@@ -16887,7 +16887,7 @@
         <v>22</v>
       </c>
       <c r="G330">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H330">
         <v>78</v>
@@ -16919,7 +16919,7 @@
         <v>25</v>
       </c>
       <c r="G331">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H331">
         <v>78</v>
@@ -16951,7 +16951,7 @@
         <v>11</v>
       </c>
       <c r="G332">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H332">
         <v>50</v>
@@ -16983,7 +16983,7 @@
         <v>16</v>
       </c>
       <c r="G333">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H333">
         <v>64</v>
@@ -17015,7 +17015,7 @@
         <v>19</v>
       </c>
       <c r="G334">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H334">
         <v>38</v>
@@ -17047,7 +17047,7 @@
         <v>22</v>
       </c>
       <c r="G335">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H335">
         <v>60</v>
@@ -17079,7 +17079,7 @@
         <v>25</v>
       </c>
       <c r="G336">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H336">
         <v>43</v>
@@ -17111,7 +17111,7 @@
         <v>11</v>
       </c>
       <c r="G337">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H337">
         <v>46</v>
@@ -17143,7 +17143,7 @@
         <v>16</v>
       </c>
       <c r="G338">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H338">
         <v>55</v>
@@ -17175,7 +17175,7 @@
         <v>19</v>
       </c>
       <c r="G339">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H339">
         <v>67</v>
@@ -17207,7 +17207,7 @@
         <v>22</v>
       </c>
       <c r="G340">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H340">
         <v>98</v>
@@ -17239,7 +17239,7 @@
         <v>25</v>
       </c>
       <c r="G341">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H341">
         <v>53</v>
@@ -17271,7 +17271,7 @@
         <v>11</v>
       </c>
       <c r="G342">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H342">
         <v>79</v>
@@ -17303,7 +17303,7 @@
         <v>16</v>
       </c>
       <c r="G343">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H343">
         <v>68</v>
@@ -17335,7 +17335,7 @@
         <v>19</v>
       </c>
       <c r="G344">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H344">
         <v>75</v>
@@ -17367,7 +17367,7 @@
         <v>22</v>
       </c>
       <c r="G345">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H345">
         <v>55</v>
@@ -17399,7 +17399,7 @@
         <v>25</v>
       </c>
       <c r="G346">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H346">
         <v>18</v>
@@ -17431,7 +17431,7 @@
         <v>11</v>
       </c>
       <c r="G347">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H347">
         <v>60</v>
@@ -17463,7 +17463,7 @@
         <v>16</v>
       </c>
       <c r="G348">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H348">
         <v>38</v>
@@ -17495,7 +17495,7 @@
         <v>19</v>
       </c>
       <c r="G349">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H349">
         <v>85</v>
@@ -17527,7 +17527,7 @@
         <v>22</v>
       </c>
       <c r="G350">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H350">
         <v>82</v>
@@ -17559,7 +17559,7 @@
         <v>25</v>
       </c>
       <c r="G351">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H351">
         <v>66</v>
@@ -17591,7 +17591,7 @@
         <v>11</v>
       </c>
       <c r="G352">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H352">
         <v>77</v>
@@ -17623,7 +17623,7 @@
         <v>16</v>
       </c>
       <c r="G353">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H353">
         <v>83</v>
@@ -17655,7 +17655,7 @@
         <v>19</v>
       </c>
       <c r="G354">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H354">
         <v>19</v>
@@ -17687,7 +17687,7 @@
         <v>22</v>
       </c>
       <c r="G355">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H355">
         <v>90</v>
@@ -17719,7 +17719,7 @@
         <v>25</v>
       </c>
       <c r="G356">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H356">
         <v>52</v>
@@ -17751,7 +17751,7 @@
         <v>11</v>
       </c>
       <c r="G357">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H357">
         <v>68</v>
@@ -17783,7 +17783,7 @@
         <v>16</v>
       </c>
       <c r="G358">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H358">
         <v>65</v>
@@ -17815,7 +17815,7 @@
         <v>19</v>
       </c>
       <c r="G359">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H359">
         <v>59</v>
@@ -17847,7 +17847,7 @@
         <v>22</v>
       </c>
       <c r="G360">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H360">
         <v>75</v>
@@ -17879,7 +17879,7 @@
         <v>25</v>
       </c>
       <c r="G361">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H361">
         <v>47</v>
@@ -17911,7 +17911,7 @@
         <v>11</v>
       </c>
       <c r="G362">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H362">
         <v>68</v>
@@ -17943,7 +17943,7 @@
         <v>16</v>
       </c>
       <c r="G363">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H363">
         <v>20</v>
@@ -17975,7 +17975,7 @@
         <v>19</v>
       </c>
       <c r="G364">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H364">
         <v>26</v>
@@ -18007,7 +18007,7 @@
         <v>22</v>
       </c>
       <c r="G365">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H365">
         <v>55</v>
@@ -18039,7 +18039,7 @@
         <v>25</v>
       </c>
       <c r="G366">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H366">
         <v>63</v>
@@ -18071,7 +18071,7 @@
         <v>11</v>
       </c>
       <c r="G367">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H367">
         <v>68</v>
@@ -18103,7 +18103,7 @@
         <v>16</v>
       </c>
       <c r="G368">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H368">
         <v>71</v>
@@ -18135,7 +18135,7 @@
         <v>19</v>
       </c>
       <c r="G369">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H369">
         <v>63</v>
@@ -18167,7 +18167,7 @@
         <v>22</v>
       </c>
       <c r="G370">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H370">
         <v>39</v>
@@ -18199,7 +18199,7 @@
         <v>25</v>
       </c>
       <c r="G371">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H371">
         <v>11</v>
@@ -18231,7 +18231,7 @@
         <v>11</v>
       </c>
       <c r="G372">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H372">
         <v>48</v>
@@ -18263,7 +18263,7 @@
         <v>16</v>
       </c>
       <c r="G373">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H373">
         <v>60</v>
@@ -18295,7 +18295,7 @@
         <v>19</v>
       </c>
       <c r="G374">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H374">
         <v>42</v>
@@ -18327,7 +18327,7 @@
         <v>22</v>
       </c>
       <c r="G375">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H375">
         <v>53</v>
@@ -18359,7 +18359,7 @@
         <v>25</v>
       </c>
       <c r="G376">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H376">
         <v>40</v>
@@ -18391,7 +18391,7 @@
         <v>11</v>
       </c>
       <c r="G377">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H377">
         <v>41</v>
@@ -18423,7 +18423,7 @@
         <v>16</v>
       </c>
       <c r="G378">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H378">
         <v>75</v>
@@ -18455,7 +18455,7 @@
         <v>19</v>
       </c>
       <c r="G379">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H379">
         <v>46</v>
@@ -18487,7 +18487,7 @@
         <v>22</v>
       </c>
       <c r="G380">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H380">
         <v>39</v>
@@ -18519,7 +18519,7 @@
         <v>25</v>
       </c>
       <c r="G381">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H381">
         <v>48</v>
@@ -18551,7 +18551,7 @@
         <v>11</v>
       </c>
       <c r="G382">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H382">
         <v>73</v>
@@ -18583,7 +18583,7 @@
         <v>16</v>
       </c>
       <c r="G383">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H383">
         <v>61</v>
@@ -18615,7 +18615,7 @@
         <v>19</v>
       </c>
       <c r="G384">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H384">
         <v>63</v>
@@ -18647,7 +18647,7 @@
         <v>22</v>
       </c>
       <c r="G385">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H385">
         <v>63</v>
@@ -18679,7 +18679,7 @@
         <v>25</v>
       </c>
       <c r="G386">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H386">
         <v>56</v>
@@ -18711,7 +18711,7 @@
         <v>11</v>
       </c>
       <c r="G387">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H387">
         <v>44</v>
@@ -18743,7 +18743,7 @@
         <v>16</v>
       </c>
       <c r="G388">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H388">
         <v>58</v>
@@ -18775,7 +18775,7 @@
         <v>19</v>
       </c>
       <c r="G389">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H389">
         <v>69</v>
@@ -18807,7 +18807,7 @@
         <v>22</v>
       </c>
       <c r="G390">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H390">
         <v>60</v>
@@ -18839,7 +18839,7 @@
         <v>25</v>
       </c>
       <c r="G391">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H391">
         <v>65</v>
@@ -18871,7 +18871,7 @@
         <v>11</v>
       </c>
       <c r="G392">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H392">
         <v>87</v>
@@ -18903,7 +18903,7 @@
         <v>16</v>
       </c>
       <c r="G393">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H393">
         <v>20</v>
@@ -18935,7 +18935,7 @@
         <v>19</v>
       </c>
       <c r="G394">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H394">
         <v>56</v>
@@ -18967,7 +18967,7 @@
         <v>22</v>
       </c>
       <c r="G395">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H395">
         <v>100</v>
@@ -18999,7 +18999,7 @@
         <v>25</v>
       </c>
       <c r="G396">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H396">
         <v>52</v>
@@ -19031,7 +19031,7 @@
         <v>11</v>
       </c>
       <c r="G397">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H397">
         <v>8</v>
@@ -19063,7 +19063,7 @@
         <v>16</v>
       </c>
       <c r="G398">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H398">
         <v>64</v>
@@ -19095,7 +19095,7 @@
         <v>19</v>
       </c>
       <c r="G399">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H399">
         <v>67</v>
@@ -19127,7 +19127,7 @@
         <v>22</v>
       </c>
       <c r="G400">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H400">
         <v>34</v>
@@ -19159,7 +19159,7 @@
         <v>25</v>
       </c>
       <c r="G401">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H401">
         <v>67</v>
@@ -19191,7 +19191,7 @@
         <v>11</v>
       </c>
       <c r="G402">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H402">
         <v>67</v>
@@ -19223,7 +19223,7 @@
         <v>16</v>
       </c>
       <c r="G403">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H403">
         <v>53</v>
@@ -19255,7 +19255,7 @@
         <v>19</v>
       </c>
       <c r="G404">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H404">
         <v>86</v>
@@ -19287,7 +19287,7 @@
         <v>22</v>
       </c>
       <c r="G405">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H405">
         <v>47</v>
@@ -19319,7 +19319,7 @@
         <v>25</v>
       </c>
       <c r="G406">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H406">
         <v>76</v>
@@ -19351,7 +19351,7 @@
         <v>11</v>
       </c>
       <c r="G407">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H407">
         <v>46</v>
@@ -19383,7 +19383,7 @@
         <v>16</v>
       </c>
       <c r="G408">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H408">
         <v>68</v>
@@ -19415,7 +19415,7 @@
         <v>19</v>
       </c>
       <c r="G409">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H409">
         <v>55</v>
@@ -19447,7 +19447,7 @@
         <v>22</v>
       </c>
       <c r="G410">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H410">
         <v>52</v>
@@ -19479,7 +19479,7 @@
         <v>25</v>
       </c>
       <c r="G411">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H411">
         <v>40</v>
@@ -19511,7 +19511,7 @@
         <v>11</v>
       </c>
       <c r="G412">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H412">
         <v>43</v>
@@ -19543,7 +19543,7 @@
         <v>16</v>
       </c>
       <c r="G413">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H413">
         <v>73</v>
@@ -19575,7 +19575,7 @@
         <v>19</v>
       </c>
       <c r="G414">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H414">
         <v>23</v>
@@ -19607,7 +19607,7 @@
         <v>22</v>
       </c>
       <c r="G415">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H415">
         <v>39</v>
@@ -19639,7 +19639,7 @@
         <v>25</v>
       </c>
       <c r="G416">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H416">
         <v>50</v>
@@ -19671,7 +19671,7 @@
         <v>11</v>
       </c>
       <c r="G417">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H417">
         <v>38</v>
@@ -19703,7 +19703,7 @@
         <v>16</v>
       </c>
       <c r="G418">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H418">
         <v>30</v>
@@ -19735,7 +19735,7 @@
         <v>19</v>
       </c>
       <c r="G419">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H419">
         <v>53</v>
@@ -19767,7 +19767,7 @@
         <v>22</v>
       </c>
       <c r="G420">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H420">
         <v>53</v>
@@ -19799,7 +19799,7 @@
         <v>25</v>
       </c>
       <c r="G421">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H421">
         <v>93</v>
@@ -19831,7 +19831,7 @@
         <v>11</v>
       </c>
       <c r="G422">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H422">
         <v>27</v>
@@ -19863,7 +19863,7 @@
         <v>16</v>
       </c>
       <c r="G423">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H423">
         <v>71</v>
@@ -19895,7 +19895,7 @@
         <v>19</v>
       </c>
       <c r="G424">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H424">
         <v>69</v>
@@ -19927,7 +19927,7 @@
         <v>22</v>
       </c>
       <c r="G425">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H425">
         <v>38</v>
@@ -19959,7 +19959,7 @@
         <v>25</v>
       </c>
       <c r="G426">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H426">
         <v>82</v>
@@ -19991,7 +19991,7 @@
         <v>11</v>
       </c>
       <c r="G427">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H427">
         <v>72</v>
@@ -20023,7 +20023,7 @@
         <v>16</v>
       </c>
       <c r="G428">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H428">
         <v>79</v>
@@ -20055,7 +20055,7 @@
         <v>19</v>
       </c>
       <c r="G429">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H429">
         <v>19</v>
@@ -20087,7 +20087,7 @@
         <v>22</v>
       </c>
       <c r="G430">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H430">
         <v>65</v>
@@ -20119,7 +20119,7 @@
         <v>25</v>
       </c>
       <c r="G431">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H431">
         <v>87</v>
@@ -20151,7 +20151,7 @@
         <v>11</v>
       </c>
       <c r="G432">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H432">
         <v>57</v>
@@ -20183,7 +20183,7 @@
         <v>16</v>
       </c>
       <c r="G433">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H433">
         <v>69</v>
@@ -20215,7 +20215,7 @@
         <v>19</v>
       </c>
       <c r="G434">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H434">
         <v>37</v>
@@ -20247,7 +20247,7 @@
         <v>22</v>
       </c>
       <c r="G435">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H435">
         <v>52</v>
@@ -20279,7 +20279,7 @@
         <v>25</v>
       </c>
       <c r="G436">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H436">
         <v>83</v>
@@ -20311,7 +20311,7 @@
         <v>11</v>
       </c>
       <c r="G437">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H437">
         <v>45</v>
@@ -20343,7 +20343,7 @@
         <v>16</v>
       </c>
       <c r="G438">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H438">
         <v>78</v>
@@ -20375,7 +20375,7 @@
         <v>19</v>
       </c>
       <c r="G439">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H439">
         <v>80</v>
@@ -20407,7 +20407,7 @@
         <v>22</v>
       </c>
       <c r="G440">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H440">
         <v>35</v>
@@ -20439,7 +20439,7 @@
         <v>25</v>
       </c>
       <c r="G441">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H441">
         <v>51</v>
@@ -20471,7 +20471,7 @@
         <v>11</v>
       </c>
       <c r="G442">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H442">
         <v>67</v>
@@ -20503,7 +20503,7 @@
         <v>16</v>
       </c>
       <c r="G443">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H443">
         <v>32</v>
@@ -20535,7 +20535,7 @@
         <v>19</v>
       </c>
       <c r="G444">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H444">
         <v>40</v>
@@ -20567,7 +20567,7 @@
         <v>22</v>
       </c>
       <c r="G445">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H445">
         <v>75</v>
@@ -20599,7 +20599,7 @@
         <v>25</v>
       </c>
       <c r="G446">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H446">
         <v>37</v>
@@ -20631,7 +20631,7 @@
         <v>11</v>
       </c>
       <c r="G447">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H447">
         <v>66</v>
@@ -20663,7 +20663,7 @@
         <v>16</v>
       </c>
       <c r="G448">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H448">
         <v>60</v>
@@ -20695,7 +20695,7 @@
         <v>19</v>
       </c>
       <c r="G449">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H449">
         <v>30</v>
@@ -20727,7 +20727,7 @@
         <v>22</v>
       </c>
       <c r="G450">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H450">
         <v>27</v>
@@ -20759,7 +20759,7 @@
         <v>25</v>
       </c>
       <c r="G451">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H451">
         <v>49</v>
@@ -20791,7 +20791,7 @@
         <v>11</v>
       </c>
       <c r="G452">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H452">
         <v>42</v>
@@ -20823,7 +20823,7 @@
         <v>16</v>
       </c>
       <c r="G453">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H453">
         <v>74</v>
@@ -20855,7 +20855,7 @@
         <v>19</v>
       </c>
       <c r="G454">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H454">
         <v>52</v>
@@ -20887,7 +20887,7 @@
         <v>22</v>
       </c>
       <c r="G455">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H455">
         <v>54</v>
@@ -20919,7 +20919,7 @@
         <v>25</v>
       </c>
       <c r="G456">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H456">
         <v>63</v>
@@ -20951,7 +20951,7 @@
         <v>11</v>
       </c>
       <c r="G457">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H457">
         <v>78</v>
@@ -20983,7 +20983,7 @@
         <v>16</v>
       </c>
       <c r="G458">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H458">
         <v>83</v>
@@ -21015,7 +21015,7 @@
         <v>19</v>
       </c>
       <c r="G459">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H459">
         <v>44</v>
@@ -21047,7 +21047,7 @@
         <v>22</v>
       </c>
       <c r="G460">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H460">
         <v>51</v>
@@ -21079,7 +21079,7 @@
         <v>25</v>
       </c>
       <c r="G461">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H461">
         <v>55</v>
@@ -21111,7 +21111,7 @@
         <v>11</v>
       </c>
       <c r="G462">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H462">
         <v>43</v>
@@ -21143,7 +21143,7 @@
         <v>16</v>
       </c>
       <c r="G463">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H463">
         <v>60</v>
@@ -21175,7 +21175,7 @@
         <v>19</v>
       </c>
       <c r="G464">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H464">
         <v>54</v>
@@ -21207,7 +21207,7 @@
         <v>22</v>
       </c>
       <c r="G465">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H465">
         <v>47</v>
@@ -21239,7 +21239,7 @@
         <v>25</v>
       </c>
       <c r="G466">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H466">
         <v>72</v>
@@ -21271,7 +21271,7 @@
         <v>11</v>
       </c>
       <c r="G467">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H467">
         <v>43</v>
@@ -21303,7 +21303,7 @@
         <v>16</v>
       </c>
       <c r="G468">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H468">
         <v>41</v>
@@ -21335,7 +21335,7 @@
         <v>19</v>
       </c>
       <c r="G469">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H469">
         <v>76</v>
@@ -21367,7 +21367,7 @@
         <v>22</v>
       </c>
       <c r="G470">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H470">
         <v>66</v>
@@ -21399,7 +21399,7 @@
         <v>25</v>
       </c>
       <c r="G471">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H471">
         <v>58</v>
@@ -21431,7 +21431,7 @@
         <v>11</v>
       </c>
       <c r="G472">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H472">
         <v>80</v>
@@ -21463,7 +21463,7 @@
         <v>16</v>
       </c>
       <c r="G473">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H473">
         <v>71</v>
@@ -21495,7 +21495,7 @@
         <v>19</v>
       </c>
       <c r="G474">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H474">
         <v>49</v>
@@ -21527,7 +21527,7 @@
         <v>22</v>
       </c>
       <c r="G475">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H475">
         <v>50</v>
@@ -21559,7 +21559,7 @@
         <v>25</v>
       </c>
       <c r="G476">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H476">
         <v>80</v>
@@ -21591,7 +21591,7 @@
         <v>11</v>
       </c>
       <c r="G477">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H477">
         <v>53</v>
@@ -21623,7 +21623,7 @@
         <v>16</v>
       </c>
       <c r="G478">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H478">
         <v>75</v>
@@ -21655,7 +21655,7 @@
         <v>19</v>
       </c>
       <c r="G479">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H479">
         <v>34</v>
@@ -21687,7 +21687,7 @@
         <v>22</v>
       </c>
       <c r="G480">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H480">
         <v>45</v>
@@ -21719,7 +21719,7 @@
         <v>25</v>
       </c>
       <c r="G481">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H481">
         <v>76</v>
@@ -21751,7 +21751,7 @@
         <v>11</v>
       </c>
       <c r="G482">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H482">
         <v>50</v>
@@ -21783,7 +21783,7 @@
         <v>16</v>
       </c>
       <c r="G483">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H483">
         <v>100</v>
@@ -21815,7 +21815,7 @@
         <v>19</v>
       </c>
       <c r="G484">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H484">
         <v>66</v>
@@ -21847,7 +21847,7 @@
         <v>22</v>
       </c>
       <c r="G485">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H485">
         <v>49</v>
@@ -21879,7 +21879,7 @@
         <v>25</v>
       </c>
       <c r="G486">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H486">
         <v>48</v>
@@ -21911,7 +21911,7 @@
         <v>11</v>
       </c>
       <c r="G487">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H487">
         <v>67</v>
@@ -21943,7 +21943,7 @@
         <v>16</v>
       </c>
       <c r="G488">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H488">
         <v>75</v>
@@ -21975,7 +21975,7 @@
         <v>19</v>
       </c>
       <c r="G489">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H489">
         <v>71</v>
@@ -22007,7 +22007,7 @@
         <v>22</v>
       </c>
       <c r="G490">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H490">
         <v>47</v>
@@ -22039,7 +22039,7 @@
         <v>25</v>
       </c>
       <c r="G491">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H491">
         <v>24</v>
@@ -22071,7 +22071,7 @@
         <v>11</v>
       </c>
       <c r="G492">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H492">
         <v>51</v>
@@ -22103,7 +22103,7 @@
         <v>16</v>
       </c>
       <c r="G493">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H493">
         <v>61</v>
@@ -22135,7 +22135,7 @@
         <v>19</v>
       </c>
       <c r="G494">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H494">
         <v>89</v>
@@ -22167,7 +22167,7 @@
         <v>22</v>
       </c>
       <c r="G495">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H495">
         <v>47</v>
@@ -22199,7 +22199,7 @@
         <v>25</v>
       </c>
       <c r="G496">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H496">
         <v>68</v>
@@ -22231,7 +22231,7 @@
         <v>11</v>
       </c>
       <c r="G497">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H497">
         <v>71</v>
@@ -22263,7 +22263,7 @@
         <v>16</v>
       </c>
       <c r="G498">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H498">
         <v>56</v>
@@ -22295,7 +22295,7 @@
         <v>19</v>
       </c>
       <c r="G499">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H499">
         <v>42</v>
@@ -22327,7 +22327,7 @@
         <v>22</v>
       </c>
       <c r="G500">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H500">
         <v>38</v>
@@ -22359,7 +22359,7 @@
         <v>25</v>
       </c>
       <c r="G501">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H501">
         <v>35</v>
@@ -22391,7 +22391,7 @@
         <v>11</v>
       </c>
       <c r="G502">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H502">
         <v>75</v>
@@ -22423,7 +22423,7 @@
         <v>16</v>
       </c>
       <c r="G503">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H503">
         <v>42</v>
@@ -22455,7 +22455,7 @@
         <v>19</v>
       </c>
       <c r="G504">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H504">
         <v>30</v>
@@ -22487,7 +22487,7 @@
         <v>22</v>
       </c>
       <c r="G505">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H505">
         <v>100</v>
@@ -22519,7 +22519,7 @@
         <v>25</v>
       </c>
       <c r="G506">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H506">
         <v>80</v>
@@ -22551,7 +22551,7 @@
         <v>11</v>
       </c>
       <c r="G507">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H507">
         <v>76</v>
@@ -22583,7 +22583,7 @@
         <v>16</v>
       </c>
       <c r="G508">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H508">
         <v>49</v>
@@ -22615,7 +22615,7 @@
         <v>19</v>
       </c>
       <c r="G509">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H509">
         <v>92</v>
@@ -22647,7 +22647,7 @@
         <v>22</v>
       </c>
       <c r="G510">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H510">
         <v>62</v>
@@ -22679,7 +22679,7 @@
         <v>25</v>
       </c>
       <c r="G511">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H511">
         <v>27</v>
@@ -22711,7 +22711,7 @@
         <v>11</v>
       </c>
       <c r="G512">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H512">
         <v>97</v>
@@ -22743,7 +22743,7 @@
         <v>16</v>
       </c>
       <c r="G513">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H513">
         <v>55</v>
@@ -22775,7 +22775,7 @@
         <v>19</v>
       </c>
       <c r="G514">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H514">
         <v>61</v>
@@ -22807,7 +22807,7 @@
         <v>22</v>
       </c>
       <c r="G515">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H515">
         <v>15</v>
@@ -22839,7 +22839,7 @@
         <v>25</v>
       </c>
       <c r="G516">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H516">
         <v>61</v>
@@ -22871,7 +22871,7 @@
         <v>11</v>
       </c>
       <c r="G517">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H517">
         <v>70</v>
@@ -22903,7 +22903,7 @@
         <v>16</v>
       </c>
       <c r="G518">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H518">
         <v>60</v>
@@ -22935,7 +22935,7 @@
         <v>19</v>
       </c>
       <c r="G519">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H519">
         <v>28</v>
@@ -22967,7 +22967,7 @@
         <v>22</v>
       </c>
       <c r="G520">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H520">
         <v>54</v>
@@ -22999,7 +22999,7 @@
         <v>25</v>
       </c>
       <c r="G521">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H521">
         <v>58</v>
@@ -23031,7 +23031,7 @@
         <v>11</v>
       </c>
       <c r="G522">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H522">
         <v>69</v>
@@ -23063,7 +23063,7 @@
         <v>16</v>
       </c>
       <c r="G523">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H523">
         <v>48</v>
@@ -23095,7 +23095,7 @@
         <v>19</v>
       </c>
       <c r="G524">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H524">
         <v>59</v>
@@ -23127,7 +23127,7 @@
         <v>22</v>
       </c>
       <c r="G525">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H525">
         <v>50</v>
@@ -23159,7 +23159,7 @@
         <v>25</v>
       </c>
       <c r="G526">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H526">
         <v>87</v>
@@ -23191,7 +23191,7 @@
         <v>11</v>
       </c>
       <c r="G527">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H527">
         <v>42</v>
@@ -23223,7 +23223,7 @@
         <v>16</v>
       </c>
       <c r="G528">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H528">
         <v>35</v>
@@ -23255,7 +23255,7 @@
         <v>19</v>
       </c>
       <c r="G529">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H529">
         <v>54</v>
@@ -23287,7 +23287,7 @@
         <v>22</v>
       </c>
       <c r="G530">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H530">
         <v>53</v>
@@ -23319,7 +23319,7 @@
         <v>25</v>
       </c>
       <c r="G531">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H531">
         <v>40</v>
@@ -23351,7 +23351,7 @@
         <v>11</v>
       </c>
       <c r="G532">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H532">
         <v>65</v>
@@ -23383,7 +23383,7 @@
         <v>16</v>
       </c>
       <c r="G533">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H533">
         <v>98</v>
@@ -23415,7 +23415,7 @@
         <v>19</v>
       </c>
       <c r="G534">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H534">
         <v>42</v>
@@ -23447,7 +23447,7 @@
         <v>22</v>
       </c>
       <c r="G535">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H535">
         <v>52</v>
@@ -23479,7 +23479,7 @@
         <v>25</v>
       </c>
       <c r="G536">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H536">
         <v>77</v>
@@ -23511,7 +23511,7 @@
         <v>11</v>
       </c>
       <c r="G537">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H537">
         <v>46</v>
@@ -23543,7 +23543,7 @@
         <v>16</v>
       </c>
       <c r="G538">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H538">
         <v>43</v>
@@ -23575,7 +23575,7 @@
         <v>19</v>
       </c>
       <c r="G539">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H539">
         <v>55</v>
@@ -23607,7 +23607,7 @@
         <v>22</v>
       </c>
       <c r="G540">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H540">
         <v>48</v>
@@ -23639,7 +23639,7 @@
         <v>25</v>
       </c>
       <c r="G541">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H541">
         <v>45</v>
@@ -23671,7 +23671,7 @@
         <v>11</v>
       </c>
       <c r="G542">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H542">
         <v>38</v>
@@ -23703,7 +23703,7 @@
         <v>16</v>
       </c>
       <c r="G543">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H543">
         <v>60</v>
@@ -23735,7 +23735,7 @@
         <v>19</v>
       </c>
       <c r="G544">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H544">
         <v>78</v>
@@ -23767,7 +23767,7 @@
         <v>22</v>
       </c>
       <c r="G545">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H545">
         <v>71</v>
@@ -23799,7 +23799,7 @@
         <v>25</v>
       </c>
       <c r="G546">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H546">
         <v>29</v>
@@ -23831,7 +23831,7 @@
         <v>11</v>
       </c>
       <c r="G547">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H547">
         <v>58</v>
@@ -23863,7 +23863,7 @@
         <v>16</v>
       </c>
       <c r="G548">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H548">
         <v>57</v>
@@ -23895,7 +23895,7 @@
         <v>19</v>
       </c>
       <c r="G549">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H549">
         <v>80</v>
@@ -23927,7 +23927,7 @@
         <v>22</v>
       </c>
       <c r="G550">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H550">
         <v>63</v>
@@ -23959,7 +23959,7 @@
         <v>25</v>
       </c>
       <c r="G551">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H551">
         <v>37</v>
@@ -23991,7 +23991,7 @@
         <v>11</v>
       </c>
       <c r="G552">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H552">
         <v>42</v>
@@ -24023,7 +24023,7 @@
         <v>16</v>
       </c>
       <c r="G553">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H553">
         <v>76</v>
@@ -24055,7 +24055,7 @@
         <v>19</v>
       </c>
       <c r="G554">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H554">
         <v>66</v>
@@ -24087,7 +24087,7 @@
         <v>22</v>
       </c>
       <c r="G555">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H555">
         <v>78</v>
@@ -24119,7 +24119,7 @@
         <v>25</v>
       </c>
       <c r="G556">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H556">
         <v>64</v>
@@ -24151,7 +24151,7 @@
         <v>11</v>
       </c>
       <c r="G557">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H557">
         <v>20</v>
@@ -24183,7 +24183,7 @@
         <v>16</v>
       </c>
       <c r="G558">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H558">
         <v>78</v>
@@ -24215,7 +24215,7 @@
         <v>19</v>
       </c>
       <c r="G559">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H559">
         <v>15</v>
@@ -24247,7 +24247,7 @@
         <v>22</v>
       </c>
       <c r="G560">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H560">
         <v>100</v>
@@ -24279,7 +24279,7 @@
         <v>25</v>
       </c>
       <c r="G561">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H561">
         <v>77</v>
@@ -24311,7 +24311,7 @@
         <v>11</v>
       </c>
       <c r="G562">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H562">
         <v>57</v>
@@ -24343,7 +24343,7 @@
         <v>16</v>
       </c>
       <c r="G563">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H563">
         <v>70</v>
@@ -24375,7 +24375,7 @@
         <v>19</v>
       </c>
       <c r="G564">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H564">
         <v>70</v>
@@ -24407,7 +24407,7 @@
         <v>22</v>
       </c>
       <c r="G565">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H565">
         <v>43</v>
@@ -24439,7 +24439,7 @@
         <v>25</v>
       </c>
       <c r="G566">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H566">
         <v>33</v>
@@ -24471,7 +24471,7 @@
         <v>11</v>
       </c>
       <c r="G567">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H567">
         <v>78</v>
@@ -24503,7 +24503,7 @@
         <v>16</v>
       </c>
       <c r="G568">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H568">
         <v>68</v>
@@ -24535,7 +24535,7 @@
         <v>19</v>
       </c>
       <c r="G569">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H569">
         <v>69</v>
@@ -24567,7 +24567,7 @@
         <v>22</v>
       </c>
       <c r="G570">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H570">
         <v>40</v>
@@ -24599,7 +24599,7 @@
         <v>25</v>
       </c>
       <c r="G571">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H571">
         <v>72</v>
@@ -24631,7 +24631,7 @@
         <v>11</v>
       </c>
       <c r="G572">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H572">
         <v>74</v>
@@ -24663,7 +24663,7 @@
         <v>16</v>
       </c>
       <c r="G573">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H573">
         <v>70</v>
@@ -24695,7 +24695,7 @@
         <v>19</v>
       </c>
       <c r="G574">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H574">
         <v>79</v>
@@ -24727,7 +24727,7 @@
         <v>22</v>
       </c>
       <c r="G575">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H575">
         <v>55</v>
@@ -24759,7 +24759,7 @@
         <v>25</v>
       </c>
       <c r="G576">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H576">
         <v>41</v>
@@ -24791,7 +24791,7 @@
         <v>11</v>
       </c>
       <c r="G577">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H577">
         <v>70</v>
@@ -24823,7 +24823,7 @@
         <v>16</v>
       </c>
       <c r="G578">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H578">
         <v>72</v>
@@ -24855,7 +24855,7 @@
         <v>19</v>
       </c>
       <c r="G579">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H579">
         <v>13</v>
@@ -24887,7 +24887,7 @@
         <v>22</v>
       </c>
       <c r="G580">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H580">
         <v>55</v>
@@ -24919,7 +24919,7 @@
         <v>25</v>
       </c>
       <c r="G581">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H581">
         <v>51</v>
@@ -24951,7 +24951,7 @@
         <v>11</v>
       </c>
       <c r="G582">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H582">
         <v>30</v>
@@ -24983,7 +24983,7 @@
         <v>16</v>
       </c>
       <c r="G583">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H583">
         <v>27</v>
@@ -25015,7 +25015,7 @@
         <v>19</v>
       </c>
       <c r="G584">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H584">
         <v>85</v>
@@ -25047,7 +25047,7 @@
         <v>22</v>
       </c>
       <c r="G585">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H585">
         <v>61</v>
@@ -25079,7 +25079,7 @@
         <v>25</v>
       </c>
       <c r="G586">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H586">
         <v>50</v>
@@ -25111,7 +25111,7 @@
         <v>11</v>
       </c>
       <c r="G587">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H587">
         <v>47</v>
@@ -25143,7 +25143,7 @@
         <v>16</v>
       </c>
       <c r="G588">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H588">
         <v>57</v>
@@ -25175,7 +25175,7 @@
         <v>19</v>
       </c>
       <c r="G589">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H589">
         <v>35</v>
@@ -25207,7 +25207,7 @@
         <v>22</v>
       </c>
       <c r="G590">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H590">
         <v>52</v>
@@ -25239,7 +25239,7 @@
         <v>25</v>
       </c>
       <c r="G591">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H591">
         <v>10</v>
@@ -25271,7 +25271,7 @@
         <v>11</v>
       </c>
       <c r="G592">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H592">
         <v>100</v>
@@ -25303,7 +25303,7 @@
         <v>16</v>
       </c>
       <c r="G593">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H593">
         <v>55</v>
@@ -25335,7 +25335,7 @@
         <v>19</v>
       </c>
       <c r="G594">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H594">
         <v>65</v>
@@ -25367,7 +25367,7 @@
         <v>22</v>
       </c>
       <c r="G595">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H595">
         <v>14</v>
@@ -25399,7 +25399,7 @@
         <v>25</v>
       </c>
       <c r="G596">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H596">
         <v>83</v>
@@ -25431,7 +25431,7 @@
         <v>11</v>
       </c>
       <c r="G597">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H597">
         <v>51</v>
@@ -25463,7 +25463,7 @@
         <v>16</v>
       </c>
       <c r="G598">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H598">
         <v>63</v>
@@ -25495,7 +25495,7 @@
         <v>19</v>
       </c>
       <c r="G599">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H599">
         <v>81</v>
@@ -25527,7 +25527,7 @@
         <v>22</v>
       </c>
       <c r="G600">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H600">
         <v>68</v>
@@ -25559,7 +25559,7 @@
         <v>25</v>
       </c>
       <c r="G601">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H601">
         <v>41</v>
@@ -25591,7 +25591,7 @@
         <v>11</v>
       </c>
       <c r="G602">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H602">
         <v>96</v>
@@ -25623,7 +25623,7 @@
         <v>16</v>
       </c>
       <c r="G603">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H603">
         <v>48</v>
@@ -25655,7 +25655,7 @@
         <v>19</v>
       </c>
       <c r="G604">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H604">
         <v>23</v>
@@ -25687,7 +25687,7 @@
         <v>22</v>
       </c>
       <c r="G605">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H605">
         <v>70</v>
@@ -25719,7 +25719,7 @@
         <v>25</v>
       </c>
       <c r="G606">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H606">
         <v>58</v>
@@ -25751,7 +25751,7 @@
         <v>11</v>
       </c>
       <c r="G607">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H607">
         <v>52</v>
@@ -25783,7 +25783,7 @@
         <v>16</v>
       </c>
       <c r="G608">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H608">
         <v>81</v>
@@ -25815,7 +25815,7 @@
         <v>19</v>
       </c>
       <c r="G609">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H609">
         <v>56</v>
@@ -25847,7 +25847,7 @@
         <v>22</v>
       </c>
       <c r="G610">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H610">
         <v>62</v>
@@ -25879,7 +25879,7 @@
         <v>25</v>
       </c>
       <c r="G611">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H611">
         <v>87</v>
@@ -25911,7 +25911,7 @@
         <v>11</v>
       </c>
       <c r="G612">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H612">
         <v>26</v>
@@ -25943,7 +25943,7 @@
         <v>16</v>
       </c>
       <c r="G613">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H613">
         <v>62</v>
@@ -25975,7 +25975,7 @@
         <v>19</v>
       </c>
       <c r="G614">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H614">
         <v>99</v>
@@ -26007,7 +26007,7 @@
         <v>22</v>
       </c>
       <c r="G615">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H615">
         <v>42</v>
@@ -26039,7 +26039,7 @@
         <v>25</v>
       </c>
       <c r="G616">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H616">
         <v>54</v>
@@ -26071,7 +26071,7 @@
         <v>11</v>
       </c>
       <c r="G617">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H617">
         <v>55</v>
@@ -26103,7 +26103,7 @@
         <v>16</v>
       </c>
       <c r="G618">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H618">
         <v>62</v>
@@ -26135,7 +26135,7 @@
         <v>19</v>
       </c>
       <c r="G619">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H619">
         <v>49</v>
@@ -26167,7 +26167,7 @@
         <v>22</v>
       </c>
       <c r="G620">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H620">
         <v>36</v>
@@ -26199,7 +26199,7 @@
         <v>25</v>
       </c>
       <c r="G621">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H621">
         <v>69</v>
@@ -26231,7 +26231,7 @@
         <v>11</v>
       </c>
       <c r="G622">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H622">
         <v>30</v>
@@ -26263,7 +26263,7 @@
         <v>16</v>
       </c>
       <c r="G623">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H623">
         <v>44</v>
@@ -26295,7 +26295,7 @@
         <v>19</v>
       </c>
       <c r="G624">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H624">
         <v>47</v>
@@ -26327,7 +26327,7 @@
         <v>22</v>
       </c>
       <c r="G625">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H625">
         <v>84</v>
@@ -26359,7 +26359,7 @@
         <v>25</v>
       </c>
       <c r="G626">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H626">
         <v>60</v>
@@ -26391,7 +26391,7 @@
         <v>11</v>
       </c>
       <c r="G627">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H627">
         <v>59</v>
@@ -26423,7 +26423,7 @@
         <v>16</v>
       </c>
       <c r="G628">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H628">
         <v>70</v>
@@ -26455,7 +26455,7 @@
         <v>19</v>
       </c>
       <c r="G629">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H629">
         <v>62</v>
@@ -26487,7 +26487,7 @@
         <v>22</v>
       </c>
       <c r="G630">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H630">
         <v>40</v>
@@ -26519,7 +26519,7 @@
         <v>25</v>
       </c>
       <c r="G631">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H631">
         <v>72</v>
@@ -26551,7 +26551,7 @@
         <v>11</v>
       </c>
       <c r="G632">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H632">
         <v>74</v>
@@ -26583,7 +26583,7 @@
         <v>16</v>
       </c>
       <c r="G633">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H633">
         <v>76</v>
@@ -26615,7 +26615,7 @@
         <v>19</v>
       </c>
       <c r="G634">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H634">
         <v>57</v>
@@ -26647,7 +26647,7 @@
         <v>22</v>
       </c>
       <c r="G635">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H635">
         <v>32</v>
@@ -26679,7 +26679,7 @@
         <v>25</v>
       </c>
       <c r="G636">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H636">
         <v>38</v>
@@ -26711,7 +26711,7 @@
         <v>11</v>
       </c>
       <c r="G637">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H637">
         <v>91</v>
@@ -26743,7 +26743,7 @@
         <v>16</v>
       </c>
       <c r="G638">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H638">
         <v>85</v>
@@ -26775,7 +26775,7 @@
         <v>19</v>
       </c>
       <c r="G639">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H639">
         <v>94</v>
@@ -26807,7 +26807,7 @@
         <v>22</v>
       </c>
       <c r="G640">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H640">
         <v>67</v>
@@ -26839,7 +26839,7 @@
         <v>25</v>
       </c>
       <c r="G641">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H641">
         <v>83</v>
@@ -26871,7 +26871,7 @@
         <v>11</v>
       </c>
       <c r="G642">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H642">
         <v>57</v>
@@ -26903,7 +26903,7 @@
         <v>16</v>
       </c>
       <c r="G643">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H643">
         <v>84</v>
@@ -26935,7 +26935,7 @@
         <v>19</v>
       </c>
       <c r="G644">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H644">
         <v>91</v>
@@ -26967,7 +26967,7 @@
         <v>22</v>
       </c>
       <c r="G645">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H645">
         <v>88</v>
@@ -26999,7 +26999,7 @@
         <v>25</v>
       </c>
       <c r="G646">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H646">
         <v>82</v>
@@ -27031,7 +27031,7 @@
         <v>11</v>
       </c>
       <c r="G647">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H647">
         <v>69</v>
@@ -27063,7 +27063,7 @@
         <v>16</v>
       </c>
       <c r="G648">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H648">
         <v>74</v>
@@ -27095,7 +27095,7 @@
         <v>19</v>
       </c>
       <c r="G649">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H649">
         <v>63</v>
@@ -27127,7 +27127,7 @@
         <v>22</v>
       </c>
       <c r="G650">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H650">
         <v>54</v>
@@ -27159,7 +27159,7 @@
         <v>25</v>
       </c>
       <c r="G651">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H651">
         <v>62</v>
@@ -27191,7 +27191,7 @@
         <v>11</v>
       </c>
       <c r="G652">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H652">
         <v>53</v>
@@ -27223,7 +27223,7 @@
         <v>16</v>
       </c>
       <c r="G653">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H653">
         <v>68</v>
@@ -27255,7 +27255,7 @@
         <v>19</v>
       </c>
       <c r="G654">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H654">
         <v>44</v>
@@ -27287,7 +27287,7 @@
         <v>22</v>
       </c>
       <c r="G655">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H655">
         <v>48</v>
@@ -27319,7 +27319,7 @@
         <v>25</v>
       </c>
       <c r="G656">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H656">
         <v>75</v>
@@ -27351,7 +27351,7 @@
         <v>11</v>
       </c>
       <c r="G657">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H657">
         <v>30</v>
@@ -27383,7 +27383,7 @@
         <v>16</v>
       </c>
       <c r="G658">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H658">
         <v>89</v>
@@ -27415,7 +27415,7 @@
         <v>19</v>
       </c>
       <c r="G659">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H659">
         <v>74</v>
@@ -27447,7 +27447,7 @@
         <v>22</v>
       </c>
       <c r="G660">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H660">
         <v>54</v>
@@ -27479,7 +27479,7 @@
         <v>25</v>
       </c>
       <c r="G661">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H661">
         <v>60</v>
@@ -27511,7 +27511,7 @@
         <v>11</v>
       </c>
       <c r="G662">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H662">
         <v>58</v>
@@ -27543,7 +27543,7 @@
         <v>16</v>
       </c>
       <c r="G663">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H663">
         <v>19</v>
@@ -27575,7 +27575,7 @@
         <v>19</v>
       </c>
       <c r="G664">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H664">
         <v>63</v>
@@ -27607,7 +27607,7 @@
         <v>22</v>
       </c>
       <c r="G665">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H665">
         <v>57</v>
@@ -27639,7 +27639,7 @@
         <v>25</v>
       </c>
       <c r="G666">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H666">
         <v>71</v>
@@ -27671,7 +27671,7 @@
         <v>11</v>
       </c>
       <c r="G667">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H667">
         <v>27</v>
@@ -27703,7 +27703,7 @@
         <v>16</v>
       </c>
       <c r="G668">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H668">
         <v>50</v>
@@ -27735,7 +27735,7 @@
         <v>19</v>
       </c>
       <c r="G669">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H669">
         <v>81</v>
@@ -27767,7 +27767,7 @@
         <v>22</v>
       </c>
       <c r="G670">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H670">
         <v>54</v>
@@ -27799,7 +27799,7 @@
         <v>25</v>
       </c>
       <c r="G671">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H671">
         <v>66</v>
@@ -27831,7 +27831,7 @@
         <v>11</v>
       </c>
       <c r="G672">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H672">
         <v>57</v>
@@ -27863,7 +27863,7 @@
         <v>16</v>
       </c>
       <c r="G673">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H673">
         <v>26</v>
@@ -27895,7 +27895,7 @@
         <v>19</v>
       </c>
       <c r="G674">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H674">
         <v>59</v>
@@ -27927,7 +27927,7 @@
         <v>22</v>
       </c>
       <c r="G675">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H675">
         <v>100</v>
@@ -27959,7 +27959,7 @@
         <v>25</v>
       </c>
       <c r="G676">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H676">
         <v>92</v>
@@ -27991,7 +27991,7 @@
         <v>11</v>
       </c>
       <c r="G677">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H677">
         <v>27</v>
@@ -28023,7 +28023,7 @@
         <v>16</v>
       </c>
       <c r="G678">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H678">
         <v>84</v>
@@ -28055,7 +28055,7 @@
         <v>19</v>
       </c>
       <c r="G679">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H679">
         <v>86</v>
@@ -28087,7 +28087,7 @@
         <v>22</v>
       </c>
       <c r="G680">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H680">
         <v>56</v>
@@ -28119,7 +28119,7 @@
         <v>25</v>
       </c>
       <c r="G681">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H681">
         <v>84</v>
@@ -28151,7 +28151,7 @@
         <v>11</v>
       </c>
       <c r="G682">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H682">
         <v>80</v>
@@ -28183,7 +28183,7 @@
         <v>16</v>
       </c>
       <c r="G683">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H683">
         <v>94</v>
@@ -28215,7 +28215,7 @@
         <v>19</v>
       </c>
       <c r="G684">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H684">
         <v>49</v>
@@ -28247,7 +28247,7 @@
         <v>22</v>
       </c>
       <c r="G685">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H685">
         <v>66</v>
@@ -28279,7 +28279,7 @@
         <v>25</v>
       </c>
       <c r="G686">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H686">
         <v>41</v>
@@ -28311,7 +28311,7 @@
         <v>11</v>
       </c>
       <c r="G687">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H687">
         <v>59</v>
@@ -28343,7 +28343,7 @@
         <v>16</v>
       </c>
       <c r="G688">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H688">
         <v>59</v>
@@ -28375,7 +28375,7 @@
         <v>19</v>
       </c>
       <c r="G689">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H689">
         <v>27</v>
@@ -28407,7 +28407,7 @@
         <v>22</v>
       </c>
       <c r="G690">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H690">
         <v>52</v>
@@ -28439,7 +28439,7 @@
         <v>25</v>
       </c>
       <c r="G691">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H691">
         <v>72</v>
@@ -28471,7 +28471,7 @@
         <v>11</v>
       </c>
       <c r="G692">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H692">
         <v>72</v>
@@ -28503,7 +28503,7 @@
         <v>16</v>
       </c>
       <c r="G693">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H693">
         <v>73</v>
@@ -28535,7 +28535,7 @@
         <v>19</v>
       </c>
       <c r="G694">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H694">
         <v>71</v>
@@ -28567,7 +28567,7 @@
         <v>22</v>
       </c>
       <c r="G695">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H695">
         <v>54</v>
@@ -28599,7 +28599,7 @@
         <v>25</v>
       </c>
       <c r="G696">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H696">
         <v>53</v>
@@ -28631,7 +28631,7 @@
         <v>11</v>
       </c>
       <c r="G697">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H697">
         <v>76</v>
@@ -28663,7 +28663,7 @@
         <v>16</v>
       </c>
       <c r="G698">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H698">
         <v>52</v>
@@ -28695,7 +28695,7 @@
         <v>19</v>
       </c>
       <c r="G699">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H699">
         <v>41</v>
@@ -28727,7 +28727,7 @@
         <v>22</v>
       </c>
       <c r="G700">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H700">
         <v>55</v>
@@ -28759,7 +28759,7 @@
         <v>25</v>
       </c>
       <c r="G701">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H701">
         <v>71</v>
@@ -28791,7 +28791,7 @@
         <v>11</v>
       </c>
       <c r="G702">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H702">
         <v>83</v>
@@ -28823,7 +28823,7 @@
         <v>16</v>
       </c>
       <c r="G703">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H703">
         <v>46</v>
@@ -28855,7 +28855,7 @@
         <v>19</v>
       </c>
       <c r="G704">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H704">
         <v>68</v>
@@ -28887,7 +28887,7 @@
         <v>22</v>
       </c>
       <c r="G705">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H705">
         <v>89</v>
@@ -28919,7 +28919,7 @@
         <v>25</v>
       </c>
       <c r="G706">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H706">
         <v>78</v>
@@ -28951,7 +28951,7 @@
         <v>11</v>
       </c>
       <c r="G707">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H707">
         <v>51</v>
@@ -28983,7 +28983,7 @@
         <v>16</v>
       </c>
       <c r="G708">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H708">
         <v>70</v>
@@ -29015,7 +29015,7 @@
         <v>19</v>
       </c>
       <c r="G709">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H709">
         <v>40</v>
@@ -29047,7 +29047,7 @@
         <v>22</v>
       </c>
       <c r="G710">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H710">
         <v>47</v>
@@ -29079,7 +29079,7 @@
         <v>25</v>
       </c>
       <c r="G711">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H711">
         <v>42</v>
@@ -29111,7 +29111,7 @@
         <v>11</v>
       </c>
       <c r="G712">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H712">
         <v>49</v>
@@ -29143,7 +29143,7 @@
         <v>16</v>
       </c>
       <c r="G713">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H713">
         <v>63</v>
@@ -29175,7 +29175,7 @@
         <v>19</v>
       </c>
       <c r="G714">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H714">
         <v>96</v>
@@ -29207,7 +29207,7 @@
         <v>22</v>
       </c>
       <c r="G715">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H715">
         <v>52</v>
@@ -29239,7 +29239,7 @@
         <v>25</v>
       </c>
       <c r="G716">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H716">
         <v>53</v>
@@ -29271,7 +29271,7 @@
         <v>11</v>
       </c>
       <c r="G717">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H717">
         <v>79</v>
@@ -29303,7 +29303,7 @@
         <v>16</v>
       </c>
       <c r="G718">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H718">
         <v>71</v>
@@ -29335,7 +29335,7 @@
         <v>19</v>
       </c>
       <c r="G719">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H719">
         <v>55</v>
@@ -29367,7 +29367,7 @@
         <v>22</v>
       </c>
       <c r="G720">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H720">
         <v>80</v>
@@ -29399,7 +29399,7 @@
         <v>25</v>
       </c>
       <c r="G721">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H721">
         <v>72</v>
@@ -29431,7 +29431,7 @@
         <v>11</v>
       </c>
       <c r="G722">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H722">
         <v>67</v>
@@ -29463,7 +29463,7 @@
         <v>16</v>
       </c>
       <c r="G723">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H723">
         <v>44</v>
@@ -29495,7 +29495,7 @@
         <v>19</v>
       </c>
       <c r="G724">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H724">
         <v>66</v>
@@ -29527,7 +29527,7 @@
         <v>22</v>
       </c>
       <c r="G725">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H725">
         <v>38</v>
@@ -29559,7 +29559,7 @@
         <v>25</v>
       </c>
       <c r="G726">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H726">
         <v>47</v>
@@ -29591,7 +29591,7 @@
         <v>11</v>
       </c>
       <c r="G727">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H727">
         <v>100</v>
@@ -29623,7 +29623,7 @@
         <v>16</v>
       </c>
       <c r="G728">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H728">
         <v>78</v>
@@ -29655,7 +29655,7 @@
         <v>19</v>
       </c>
       <c r="G729">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H729">
         <v>47</v>
@@ -29687,7 +29687,7 @@
         <v>22</v>
       </c>
       <c r="G730">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H730">
         <v>70</v>
@@ -29719,7 +29719,7 @@
         <v>25</v>
       </c>
       <c r="G731">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H731">
         <v>31</v>
@@ -29751,7 +29751,7 @@
         <v>11</v>
       </c>
       <c r="G732">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H732">
         <v>66</v>
@@ -29783,7 +29783,7 @@
         <v>16</v>
       </c>
       <c r="G733">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H733">
         <v>58</v>
@@ -29815,7 +29815,7 @@
         <v>19</v>
       </c>
       <c r="G734">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H734">
         <v>71</v>
@@ -29847,7 +29847,7 @@
         <v>22</v>
       </c>
       <c r="G735">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H735">
         <v>63</v>
@@ -29879,7 +29879,7 @@
         <v>25</v>
       </c>
       <c r="G736">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H736">
         <v>16</v>
@@ -29911,7 +29911,7 @@
         <v>11</v>
       </c>
       <c r="G737">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H737">
         <v>65</v>
@@ -29943,7 +29943,7 @@
         <v>16</v>
       </c>
       <c r="G738">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H738">
         <v>68</v>
@@ -29975,7 +29975,7 @@
         <v>19</v>
       </c>
       <c r="G739">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H739">
         <v>55</v>
@@ -30007,7 +30007,7 @@
         <v>22</v>
       </c>
       <c r="G740">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H740">
         <v>67</v>
@@ -30039,7 +30039,7 @@
         <v>25</v>
       </c>
       <c r="G741">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H741">
         <v>62</v>
@@ -30071,7 +30071,7 @@
         <v>11</v>
       </c>
       <c r="G742">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H742">
         <v>100</v>
@@ -30103,7 +30103,7 @@
         <v>16</v>
       </c>
       <c r="G743">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H743">
         <v>71</v>
@@ -30135,7 +30135,7 @@
         <v>19</v>
       </c>
       <c r="G744">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H744">
         <v>47</v>
@@ -30167,7 +30167,7 @@
         <v>22</v>
       </c>
       <c r="G745">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H745">
         <v>42</v>
@@ -30199,7 +30199,7 @@
         <v>25</v>
       </c>
       <c r="G746">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H746">
         <v>53</v>
@@ -30231,7 +30231,7 @@
         <v>11</v>
       </c>
       <c r="G747">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H747">
         <v>52</v>
@@ -30263,7 +30263,7 @@
         <v>16</v>
       </c>
       <c r="G748">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H748">
         <v>87</v>
@@ -30295,7 +30295,7 @@
         <v>19</v>
       </c>
       <c r="G749">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H749">
         <v>61</v>
@@ -30327,7 +30327,7 @@
         <v>22</v>
       </c>
       <c r="G750">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H750">
         <v>47</v>
@@ -30359,7 +30359,7 @@
         <v>25</v>
       </c>
       <c r="G751">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H751">
         <v>62</v>
@@ -30391,7 +30391,7 @@
         <v>11</v>
       </c>
       <c r="G752">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H752">
         <v>69</v>
@@ -30423,7 +30423,7 @@
         <v>16</v>
       </c>
       <c r="G753">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H753">
         <v>46</v>
@@ -30455,7 +30455,7 @@
         <v>19</v>
       </c>
       <c r="G754">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H754">
         <v>67</v>
@@ -30487,7 +30487,7 @@
         <v>22</v>
       </c>
       <c r="G755">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H755">
         <v>61</v>
@@ -30519,7 +30519,7 @@
         <v>25</v>
       </c>
       <c r="G756">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H756">
         <v>80</v>
@@ -30551,7 +30551,7 @@
         <v>11</v>
       </c>
       <c r="G757">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H757">
         <v>33</v>
@@ -30583,7 +30583,7 @@
         <v>16</v>
       </c>
       <c r="G758">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H758">
         <v>63</v>
@@ -30615,7 +30615,7 @@
         <v>19</v>
       </c>
       <c r="G759">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H759">
         <v>79</v>
@@ -30647,7 +30647,7 @@
         <v>22</v>
       </c>
       <c r="G760">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H760">
         <v>39</v>
@@ -30679,7 +30679,7 @@
         <v>25</v>
       </c>
       <c r="G761">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H761">
         <v>16</v>
@@ -30711,7 +30711,7 @@
         <v>11</v>
       </c>
       <c r="G762">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H762">
         <v>92</v>
@@ -30743,7 +30743,7 @@
         <v>16</v>
       </c>
       <c r="G763">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H763">
         <v>28</v>
@@ -30775,7 +30775,7 @@
         <v>19</v>
       </c>
       <c r="G764">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H764">
         <v>55</v>
@@ -30807,7 +30807,7 @@
         <v>22</v>
       </c>
       <c r="G765">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H765">
         <v>51</v>
@@ -30839,7 +30839,7 @@
         <v>25</v>
       </c>
       <c r="G766">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H766">
         <v>57</v>
@@ -30871,7 +30871,7 @@
         <v>11</v>
       </c>
       <c r="G767">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H767">
         <v>65</v>
@@ -30903,7 +30903,7 @@
         <v>16</v>
       </c>
       <c r="G768">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H768">
         <v>81</v>
@@ -30935,7 +30935,7 @@
         <v>19</v>
       </c>
       <c r="G769">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H769">
         <v>91</v>
@@ -30967,7 +30967,7 @@
         <v>22</v>
       </c>
       <c r="G770">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H770">
         <v>58</v>
@@ -30999,7 +30999,7 @@
         <v>25</v>
       </c>
       <c r="G771">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H771">
         <v>75</v>
@@ -31031,7 +31031,7 @@
         <v>11</v>
       </c>
       <c r="G772">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H772">
         <v>74</v>
@@ -31063,7 +31063,7 @@
         <v>16</v>
       </c>
       <c r="G773">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H773">
         <v>56</v>
@@ -31095,7 +31095,7 @@
         <v>19</v>
       </c>
       <c r="G774">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H774">
         <v>78</v>
@@ -31127,7 +31127,7 @@
         <v>22</v>
       </c>
       <c r="G775">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H775">
         <v>78</v>
@@ -31159,7 +31159,7 @@
         <v>25</v>
       </c>
       <c r="G776">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H776">
         <v>54</v>
@@ -31191,7 +31191,7 @@
         <v>11</v>
       </c>
       <c r="G777">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H777">
         <v>66</v>
@@ -31223,7 +31223,7 @@
         <v>16</v>
       </c>
       <c r="G778">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H778">
         <v>53</v>
@@ -31255,7 +31255,7 @@
         <v>19</v>
       </c>
       <c r="G779">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H779">
         <v>64</v>
@@ -31287,7 +31287,7 @@
         <v>22</v>
       </c>
       <c r="G780">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H780">
         <v>62</v>
@@ -31319,7 +31319,7 @@
         <v>25</v>
       </c>
       <c r="G781">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H781">
         <v>62</v>
@@ -31351,7 +31351,7 @@
         <v>11</v>
       </c>
       <c r="G782">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H782">
         <v>87</v>
@@ -31383,7 +31383,7 @@
         <v>16</v>
       </c>
       <c r="G783">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H783">
         <v>63</v>
@@ -31415,7 +31415,7 @@
         <v>19</v>
       </c>
       <c r="G784">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H784">
         <v>31</v>
@@ -31447,7 +31447,7 @@
         <v>22</v>
       </c>
       <c r="G785">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H785">
         <v>66</v>
@@ -31479,7 +31479,7 @@
         <v>25</v>
       </c>
       <c r="G786">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H786">
         <v>52</v>
@@ -31511,7 +31511,7 @@
         <v>11</v>
       </c>
       <c r="G787">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H787">
         <v>70</v>
@@ -31543,7 +31543,7 @@
         <v>16</v>
       </c>
       <c r="G788">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H788">
         <v>73</v>
@@ -31575,7 +31575,7 @@
         <v>19</v>
       </c>
       <c r="G789">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H789">
         <v>73</v>
@@ -31607,7 +31607,7 @@
         <v>22</v>
       </c>
       <c r="G790">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H790">
         <v>49</v>
@@ -31639,7 +31639,7 @@
         <v>25</v>
       </c>
       <c r="G791">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H791">
         <v>71</v>
@@ -31671,7 +31671,7 @@
         <v>11</v>
       </c>
       <c r="G792">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H792">
         <v>97</v>
@@ -31703,7 +31703,7 @@
         <v>16</v>
       </c>
       <c r="G793">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H793">
         <v>33</v>
@@ -31735,7 +31735,7 @@
         <v>19</v>
       </c>
       <c r="G794">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H794">
         <v>43</v>
@@ -31767,7 +31767,7 @@
         <v>22</v>
       </c>
       <c r="G795">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H795">
         <v>71</v>
@@ -31799,7 +31799,7 @@
         <v>25</v>
       </c>
       <c r="G796">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H796">
         <v>61</v>
@@ -31831,7 +31831,7 @@
         <v>11</v>
       </c>
       <c r="G797">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H797">
         <v>42</v>
@@ -31863,7 +31863,7 @@
         <v>16</v>
       </c>
       <c r="G798">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H798">
         <v>92</v>
@@ -31895,7 +31895,7 @@
         <v>19</v>
       </c>
       <c r="G799">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H799">
         <v>59</v>
@@ -31927,7 +31927,7 @@
         <v>22</v>
       </c>
       <c r="G800">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H800">
         <v>14</v>
@@ -31959,7 +31959,7 @@
         <v>25</v>
       </c>
       <c r="G801">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H801">
         <v>61</v>
@@ -31991,7 +31991,7 @@
         <v>11</v>
       </c>
       <c r="G802">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H802">
         <v>16</v>
@@ -32023,7 +32023,7 @@
         <v>16</v>
       </c>
       <c r="G803">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H803">
         <v>50</v>
@@ -32055,7 +32055,7 @@
         <v>19</v>
       </c>
       <c r="G804">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H804">
         <v>78</v>
@@ -32087,7 +32087,7 @@
         <v>22</v>
       </c>
       <c r="G805">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H805">
         <v>65</v>
@@ -32119,7 +32119,7 @@
         <v>25</v>
       </c>
       <c r="G806">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H806">
         <v>36</v>
@@ -32151,7 +32151,7 @@
         <v>11</v>
       </c>
       <c r="G807">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H807">
         <v>66</v>
@@ -32183,7 +32183,7 @@
         <v>16</v>
       </c>
       <c r="G808">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H808">
         <v>71</v>
@@ -32215,7 +32215,7 @@
         <v>19</v>
       </c>
       <c r="G809">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H809">
         <v>54</v>
@@ -32247,7 +32247,7 @@
         <v>22</v>
       </c>
       <c r="G810">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H810">
         <v>49</v>
@@ -32279,7 +32279,7 @@
         <v>25</v>
       </c>
       <c r="G811">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H811">
         <v>67</v>
@@ -32311,7 +32311,7 @@
         <v>11</v>
       </c>
       <c r="G812">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H812">
         <v>77</v>
@@ -32343,7 +32343,7 @@
         <v>16</v>
       </c>
       <c r="G813">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H813">
         <v>28</v>
@@ -32375,7 +32375,7 @@
         <v>19</v>
       </c>
       <c r="G814">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H814">
         <v>60</v>
@@ -32407,7 +32407,7 @@
         <v>22</v>
       </c>
       <c r="G815">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H815">
         <v>70</v>
@@ -32439,7 +32439,7 @@
         <v>25</v>
       </c>
       <c r="G816">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H816">
         <v>53</v>
@@ -32471,7 +32471,7 @@
         <v>11</v>
       </c>
       <c r="G817">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H817">
         <v>25</v>
@@ -32503,7 +32503,7 @@
         <v>16</v>
       </c>
       <c r="G818">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H818">
         <v>43</v>
@@ -32535,7 +32535,7 @@
         <v>19</v>
       </c>
       <c r="G819">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H819">
         <v>62</v>
@@ -32567,7 +32567,7 @@
         <v>22</v>
       </c>
       <c r="G820">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H820">
         <v>85</v>
@@ -32599,7 +32599,7 @@
         <v>25</v>
       </c>
       <c r="G821">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H821">
         <v>91</v>
@@ -32631,7 +32631,7 @@
         <v>11</v>
       </c>
       <c r="G822">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H822">
         <v>30</v>
@@ -32663,7 +32663,7 @@
         <v>16</v>
       </c>
       <c r="G823">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H823">
         <v>26</v>
@@ -32695,7 +32695,7 @@
         <v>19</v>
       </c>
       <c r="G824">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H824">
         <v>38</v>
@@ -32727,7 +32727,7 @@
         <v>22</v>
       </c>
       <c r="G825">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H825">
         <v>60</v>
@@ -32759,7 +32759,7 @@
         <v>25</v>
       </c>
       <c r="G826">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H826">
         <v>96</v>
@@ -32791,7 +32791,7 @@
         <v>11</v>
       </c>
       <c r="G827">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H827">
         <v>75</v>
@@ -32823,7 +32823,7 @@
         <v>16</v>
       </c>
       <c r="G828">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H828">
         <v>51</v>
@@ -32855,7 +32855,7 @@
         <v>19</v>
       </c>
       <c r="G829">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H829">
         <v>47</v>
@@ -32887,7 +32887,7 @@
         <v>22</v>
       </c>
       <c r="G830">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H830">
         <v>100</v>
@@ -32919,7 +32919,7 @@
         <v>25</v>
       </c>
       <c r="G831">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H831">
         <v>60</v>
@@ -32951,7 +32951,7 @@
         <v>11</v>
       </c>
       <c r="G832">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H832">
         <v>46</v>
@@ -32983,7 +32983,7 @@
         <v>16</v>
       </c>
       <c r="G833">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H833">
         <v>46</v>
@@ -33015,7 +33015,7 @@
         <v>19</v>
       </c>
       <c r="G834">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H834">
         <v>100</v>
@@ -33047,7 +33047,7 @@
         <v>22</v>
       </c>
       <c r="G835">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H835">
         <v>63</v>
@@ -33079,7 +33079,7 @@
         <v>25</v>
       </c>
       <c r="G836">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H836">
         <v>54</v>
@@ -33111,7 +33111,7 @@
         <v>11</v>
       </c>
       <c r="G837">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H837">
         <v>89</v>
@@ -33143,7 +33143,7 @@
         <v>16</v>
       </c>
       <c r="G838">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H838">
         <v>82</v>
@@ -33175,7 +33175,7 @@
         <v>19</v>
       </c>
       <c r="G839">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H839">
         <v>77</v>
@@ -33207,7 +33207,7 @@
         <v>22</v>
       </c>
       <c r="G840">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H840">
         <v>76</v>
@@ -33239,7 +33239,7 @@
         <v>25</v>
       </c>
       <c r="G841">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H841">
         <v>88</v>
@@ -33271,7 +33271,7 @@
         <v>11</v>
       </c>
       <c r="G842">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H842">
         <v>100</v>
@@ -33303,7 +33303,7 @@
         <v>16</v>
       </c>
       <c r="G843">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H843">
         <v>43</v>
@@ -33335,7 +33335,7 @@
         <v>19</v>
       </c>
       <c r="G844">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H844">
         <v>51</v>
@@ -33367,7 +33367,7 @@
         <v>22</v>
       </c>
       <c r="G845">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H845">
         <v>53</v>
@@ -33399,7 +33399,7 @@
         <v>25</v>
       </c>
       <c r="G846">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H846">
         <v>31</v>
@@ -33431,7 +33431,7 @@
         <v>11</v>
       </c>
       <c r="G847">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H847">
         <v>54</v>
@@ -33463,7 +33463,7 @@
         <v>16</v>
       </c>
       <c r="G848">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H848">
         <v>97</v>
@@ -33495,7 +33495,7 @@
         <v>19</v>
       </c>
       <c r="G849">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H849">
         <v>67</v>
@@ -33527,7 +33527,7 @@
         <v>22</v>
       </c>
       <c r="G850">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H850">
         <v>89</v>
@@ -33559,7 +33559,7 @@
         <v>25</v>
       </c>
       <c r="G851">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H851">
         <v>73</v>
@@ -33591,7 +33591,7 @@
         <v>11</v>
       </c>
       <c r="G852">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H852">
         <v>57</v>
@@ -33623,7 +33623,7 @@
         <v>16</v>
       </c>
       <c r="G853">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H853">
         <v>38</v>
@@ -33655,7 +33655,7 @@
         <v>19</v>
       </c>
       <c r="G854">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H854">
         <v>45</v>
@@ -33687,7 +33687,7 @@
         <v>22</v>
       </c>
       <c r="G855">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H855">
         <v>50</v>
@@ -33719,7 +33719,7 @@
         <v>25</v>
       </c>
       <c r="G856">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H856">
         <v>64</v>
@@ -33751,7 +33751,7 @@
         <v>11</v>
       </c>
       <c r="G857">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H857">
         <v>49</v>
@@ -33783,7 +33783,7 @@
         <v>16</v>
       </c>
       <c r="G858">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H858">
         <v>59</v>
@@ -33815,7 +33815,7 @@
         <v>19</v>
       </c>
       <c r="G859">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H859">
         <v>64</v>
@@ -33847,7 +33847,7 @@
         <v>22</v>
       </c>
       <c r="G860">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H860">
         <v>68</v>
@@ -33879,7 +33879,7 @@
         <v>25</v>
       </c>
       <c r="G861">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H861">
         <v>69</v>
@@ -33911,7 +33911,7 @@
         <v>11</v>
       </c>
       <c r="G862">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H862">
         <v>100</v>
@@ -33943,7 +33943,7 @@
         <v>16</v>
       </c>
       <c r="G863">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H863">
         <v>38</v>
@@ -33975,7 +33975,7 @@
         <v>19</v>
       </c>
       <c r="G864">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H864">
         <v>50</v>
@@ -34007,7 +34007,7 @@
         <v>22</v>
       </c>
       <c r="G865">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H865">
         <v>53</v>
@@ -34039,7 +34039,7 @@
         <v>25</v>
       </c>
       <c r="G866">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H866">
         <v>55</v>
@@ -34071,7 +34071,7 @@
         <v>11</v>
       </c>
       <c r="G867">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H867">
         <v>73</v>
@@ -34103,7 +34103,7 @@
         <v>16</v>
       </c>
       <c r="G868">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H868">
         <v>95</v>
@@ -34135,7 +34135,7 @@
         <v>19</v>
       </c>
       <c r="G869">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H869">
         <v>50</v>
@@ -34167,7 +34167,7 @@
         <v>22</v>
       </c>
       <c r="G870">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H870">
         <v>100</v>
@@ -34199,7 +34199,7 @@
         <v>25</v>
       </c>
       <c r="G871">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H871">
         <v>96</v>
@@ -34231,7 +34231,7 @@
         <v>11</v>
       </c>
       <c r="G872">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H872">
         <v>38</v>
@@ -34263,7 +34263,7 @@
         <v>16</v>
       </c>
       <c r="G873">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H873">
         <v>17</v>
@@ -34295,7 +34295,7 @@
         <v>19</v>
       </c>
       <c r="G874">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H874">
         <v>54</v>
@@ -34327,7 +34327,7 @@
         <v>22</v>
       </c>
       <c r="G875">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H875">
         <v>54</v>
@@ -34359,7 +34359,7 @@
         <v>25</v>
       </c>
       <c r="G876">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H876">
         <v>81</v>
@@ -34391,7 +34391,7 @@
         <v>11</v>
       </c>
       <c r="G877">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H877">
         <v>27</v>
@@ -34423,7 +34423,7 @@
         <v>16</v>
       </c>
       <c r="G878">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H878">
         <v>48</v>
@@ -34455,7 +34455,7 @@
         <v>19</v>
       </c>
       <c r="G879">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H879">
         <v>51</v>
@@ -34487,7 +34487,7 @@
         <v>22</v>
       </c>
       <c r="G880">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H880">
         <v>95</v>
@@ -34519,7 +34519,7 @@
         <v>25</v>
       </c>
       <c r="G881">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H881">
         <v>78</v>
@@ -34551,7 +34551,7 @@
         <v>11</v>
       </c>
       <c r="G882">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H882">
         <v>62</v>
@@ -34583,7 +34583,7 @@
         <v>16</v>
       </c>
       <c r="G883">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H883">
         <v>60</v>
@@ -34615,7 +34615,7 @@
         <v>19</v>
       </c>
       <c r="G884">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H884">
         <v>29</v>
@@ -34647,7 +34647,7 @@
         <v>22</v>
       </c>
       <c r="G885">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H885">
         <v>61</v>
@@ -34679,7 +34679,7 @@
         <v>25</v>
       </c>
       <c r="G886">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H886">
         <v>98</v>
@@ -34711,7 +34711,7 @@
         <v>11</v>
       </c>
       <c r="G887">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H887">
         <v>41</v>
@@ -34743,7 +34743,7 @@
         <v>16</v>
       </c>
       <c r="G888">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H888">
         <v>66</v>
@@ -34775,7 +34775,7 @@
         <v>19</v>
       </c>
       <c r="G889">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H889">
         <v>66</v>
@@ -34807,7 +34807,7 @@
         <v>22</v>
       </c>
       <c r="G890">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H890">
         <v>83</v>
@@ -34839,7 +34839,7 @@
         <v>25</v>
       </c>
       <c r="G891">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H891">
         <v>82</v>
@@ -34871,7 +34871,7 @@
         <v>11</v>
       </c>
       <c r="G892">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H892">
         <v>71</v>
@@ -34903,7 +34903,7 @@
         <v>16</v>
       </c>
       <c r="G893">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H893">
         <v>66</v>
@@ -34935,7 +34935,7 @@
         <v>19</v>
       </c>
       <c r="G894">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H894">
         <v>100</v>
@@ -34967,7 +34967,7 @@
         <v>22</v>
       </c>
       <c r="G895">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H895">
         <v>23</v>
@@ -34999,7 +34999,7 @@
         <v>25</v>
       </c>
       <c r="G896">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H896">
         <v>83</v>
@@ -35031,7 +35031,7 @@
         <v>11</v>
       </c>
       <c r="G897">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H897">
         <v>96</v>
@@ -35063,7 +35063,7 @@
         <v>16</v>
       </c>
       <c r="G898">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H898">
         <v>73</v>
@@ -35095,7 +35095,7 @@
         <v>19</v>
       </c>
       <c r="G899">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H899">
         <v>57</v>
@@ -35127,7 +35127,7 @@
         <v>22</v>
       </c>
       <c r="G900">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H900">
         <v>68</v>
@@ -35159,7 +35159,7 @@
         <v>25</v>
       </c>
       <c r="G901">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H901">
         <v>51</v>
@@ -35191,7 +35191,7 @@
         <v>11</v>
       </c>
       <c r="G902">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H902">
         <v>70</v>
@@ -35223,7 +35223,7 @@
         <v>16</v>
       </c>
       <c r="G903">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H903">
         <v>40</v>
@@ -35255,7 +35255,7 @@
         <v>19</v>
       </c>
       <c r="G904">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H904">
         <v>36</v>
@@ -35287,7 +35287,7 @@
         <v>22</v>
       </c>
       <c r="G905">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H905">
         <v>86</v>
@@ -35319,7 +35319,7 @@
         <v>25</v>
       </c>
       <c r="G906">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H906">
         <v>61</v>
@@ -35351,7 +35351,7 @@
         <v>11</v>
       </c>
       <c r="G907">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H907">
         <v>54</v>
@@ -35383,7 +35383,7 @@
         <v>16</v>
       </c>
       <c r="G908">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H908">
         <v>20</v>
@@ -35415,7 +35415,7 @@
         <v>19</v>
       </c>
       <c r="G909">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H909">
         <v>51</v>
@@ -35447,7 +35447,7 @@
         <v>22</v>
       </c>
       <c r="G910">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H910">
         <v>83</v>
@@ -35479,7 +35479,7 @@
         <v>25</v>
       </c>
       <c r="G911">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H911">
         <v>69</v>
@@ -35511,7 +35511,7 @@
         <v>11</v>
       </c>
       <c r="G912">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H912">
         <v>56</v>
@@ -35543,7 +35543,7 @@
         <v>16</v>
       </c>
       <c r="G913">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H913">
         <v>60</v>
@@ -35575,7 +35575,7 @@
         <v>19</v>
       </c>
       <c r="G914">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H914">
         <v>50</v>
@@ -35607,7 +35607,7 @@
         <v>22</v>
       </c>
       <c r="G915">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H915">
         <v>82</v>
@@ -35639,7 +35639,7 @@
         <v>25</v>
       </c>
       <c r="G916">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H916">
         <v>30</v>
@@ -35671,7 +35671,7 @@
         <v>11</v>
       </c>
       <c r="G917">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H917">
         <v>75</v>
@@ -35703,7 +35703,7 @@
         <v>16</v>
       </c>
       <c r="G918">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H918">
         <v>100</v>
@@ -35735,7 +35735,7 @@
         <v>19</v>
       </c>
       <c r="G919">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H919">
         <v>100</v>
@@ -35767,7 +35767,7 @@
         <v>22</v>
       </c>
       <c r="G920">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H920">
         <v>42</v>
@@ -35799,7 +35799,7 @@
         <v>25</v>
       </c>
       <c r="G921">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H921">
         <v>67</v>
@@ -35831,7 +35831,7 @@
         <v>11</v>
       </c>
       <c r="G922">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H922">
         <v>47</v>
@@ -35863,7 +35863,7 @@
         <v>16</v>
       </c>
       <c r="G923">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H923">
         <v>43</v>
@@ -35895,7 +35895,7 @@
         <v>19</v>
       </c>
       <c r="G924">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H924">
         <v>54</v>
@@ -35927,7 +35927,7 @@
         <v>22</v>
       </c>
       <c r="G925">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H925">
         <v>62</v>
@@ -35959,7 +35959,7 @@
         <v>25</v>
       </c>
       <c r="G926">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H926">
         <v>57</v>
@@ -35991,7 +35991,7 @@
         <v>11</v>
       </c>
       <c r="G927">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H927">
         <v>64</v>
@@ -36023,7 +36023,7 @@
         <v>16</v>
       </c>
       <c r="G928">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H928">
         <v>67</v>
@@ -36055,7 +36055,7 @@
         <v>19</v>
       </c>
       <c r="G929">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H929">
         <v>32</v>
@@ -36087,7 +36087,7 @@
         <v>22</v>
       </c>
       <c r="G930">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H930">
         <v>56</v>
@@ -36119,7 +36119,7 @@
         <v>25</v>
       </c>
       <c r="G931">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H931">
         <v>70</v>
@@ -36151,7 +36151,7 @@
         <v>11</v>
       </c>
       <c r="G932">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H932">
         <v>86</v>
@@ -36183,7 +36183,7 @@
         <v>16</v>
       </c>
       <c r="G933">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H933">
         <v>61</v>
@@ -36215,7 +36215,7 @@
         <v>19</v>
       </c>
       <c r="G934">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H934">
         <v>59</v>
@@ -36247,7 +36247,7 @@
         <v>22</v>
       </c>
       <c r="G935">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H935">
         <v>64</v>
@@ -36279,7 +36279,7 @@
         <v>25</v>
       </c>
       <c r="G936">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H936">
         <v>72</v>
@@ -36311,7 +36311,7 @@
         <v>11</v>
       </c>
       <c r="G937">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H937">
         <v>76</v>
@@ -36343,7 +36343,7 @@
         <v>16</v>
       </c>
       <c r="G938">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H938">
         <v>61</v>
@@ -36375,7 +36375,7 @@
         <v>19</v>
       </c>
       <c r="G939">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H939">
         <v>36</v>
@@ -36407,7 +36407,7 @@
         <v>22</v>
       </c>
       <c r="G940">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H940">
         <v>47</v>
@@ -36439,7 +36439,7 @@
         <v>25</v>
       </c>
       <c r="G941">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H941">
         <v>76</v>
@@ -36471,7 +36471,7 @@
         <v>11</v>
       </c>
       <c r="G942">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H942">
         <v>35</v>
@@ -36503,7 +36503,7 @@
         <v>16</v>
       </c>
       <c r="G943">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H943">
         <v>68</v>
@@ -36535,7 +36535,7 @@
         <v>19</v>
       </c>
       <c r="G944">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H944">
         <v>58</v>
@@ -36567,7 +36567,7 @@
         <v>22</v>
       </c>
       <c r="G945">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H945">
         <v>95</v>
@@ -36599,7 +36599,7 @@
         <v>25</v>
       </c>
       <c r="G946">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H946">
         <v>28</v>
@@ -36631,7 +36631,7 @@
         <v>11</v>
       </c>
       <c r="G947">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H947">
         <v>33</v>
@@ -36663,7 +36663,7 @@
         <v>16</v>
       </c>
       <c r="G948">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H948">
         <v>60</v>
@@ -36695,7 +36695,7 @@
         <v>19</v>
       </c>
       <c r="G949">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H949">
         <v>85</v>
@@ -36727,7 +36727,7 @@
         <v>22</v>
       </c>
       <c r="G950">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H950">
         <v>57</v>
@@ -36759,7 +36759,7 @@
         <v>25</v>
       </c>
       <c r="G951">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H951">
         <v>34</v>
@@ -36791,7 +36791,7 @@
         <v>11</v>
       </c>
       <c r="G952">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H952">
         <v>80</v>
@@ -36823,7 +36823,7 @@
         <v>16</v>
       </c>
       <c r="G953">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H953">
         <v>55</v>
@@ -36855,7 +36855,7 @@
         <v>19</v>
       </c>
       <c r="G954">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H954">
         <v>71</v>
@@ -36887,7 +36887,7 @@
         <v>22</v>
       </c>
       <c r="G955">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H955">
         <v>86</v>
@@ -36919,7 +36919,7 @@
         <v>25</v>
       </c>
       <c r="G956">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H956">
         <v>100</v>
@@ -36951,7 +36951,7 @@
         <v>11</v>
       </c>
       <c r="G957">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H957">
         <v>58</v>
@@ -36983,7 +36983,7 @@
         <v>16</v>
       </c>
       <c r="G958">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H958">
         <v>80</v>
@@ -37015,7 +37015,7 @@
         <v>19</v>
       </c>
       <c r="G959">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H959">
         <v>77</v>
@@ -37047,7 +37047,7 @@
         <v>22</v>
       </c>
       <c r="G960">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H960">
         <v>47</v>
@@ -37079,7 +37079,7 @@
         <v>25</v>
       </c>
       <c r="G961">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H961">
         <v>44</v>
@@ -37111,7 +37111,7 @@
         <v>11</v>
       </c>
       <c r="G962">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H962">
         <v>34</v>
@@ -37143,7 +37143,7 @@
         <v>16</v>
       </c>
       <c r="G963">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H963">
         <v>100</v>
@@ -37175,7 +37175,7 @@
         <v>19</v>
       </c>
       <c r="G964">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H964">
         <v>85</v>
@@ -37207,7 +37207,7 @@
         <v>22</v>
       </c>
       <c r="G965">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H965">
         <v>94</v>
@@ -37239,7 +37239,7 @@
         <v>25</v>
       </c>
       <c r="G966">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H966">
         <v>51</v>
@@ -37271,7 +37271,7 @@
         <v>11</v>
       </c>
       <c r="G967">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H967">
         <v>44</v>
@@ -37303,7 +37303,7 @@
         <v>16</v>
       </c>
       <c r="G968">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H968">
         <v>60</v>
@@ -37335,7 +37335,7 @@
         <v>19</v>
       </c>
       <c r="G969">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H969">
         <v>92</v>
@@ -37367,7 +37367,7 @@
         <v>22</v>
       </c>
       <c r="G970">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H970">
         <v>82</v>
@@ -37399,7 +37399,7 @@
         <v>25</v>
       </c>
       <c r="G971">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H971">
         <v>71</v>
@@ -37431,7 +37431,7 @@
         <v>11</v>
       </c>
       <c r="G972">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H972">
         <v>37</v>
@@ -37463,7 +37463,7 @@
         <v>16</v>
       </c>
       <c r="G973">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H973">
         <v>95</v>
@@ -37495,7 +37495,7 @@
         <v>19</v>
       </c>
       <c r="G974">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H974">
         <v>48</v>
@@ -37527,7 +37527,7 @@
         <v>22</v>
       </c>
       <c r="G975">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H975">
         <v>16</v>
@@ -37559,7 +37559,7 @@
         <v>25</v>
       </c>
       <c r="G976">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H976">
         <v>82</v>
@@ -37591,7 +37591,7 @@
         <v>11</v>
       </c>
       <c r="G977">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H977">
         <v>85</v>
@@ -37623,7 +37623,7 @@
         <v>16</v>
       </c>
       <c r="G978">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H978">
         <v>31</v>
@@ -37655,7 +37655,7 @@
         <v>19</v>
       </c>
       <c r="G979">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H979">
         <v>75</v>
@@ -37687,7 +37687,7 @@
         <v>22</v>
       </c>
       <c r="G980">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H980">
         <v>100</v>
@@ -37719,7 +37719,7 @@
         <v>25</v>
       </c>
       <c r="G981">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H981">
         <v>94</v>
@@ -37751,7 +37751,7 @@
         <v>11</v>
       </c>
       <c r="G982">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H982">
         <v>97</v>
@@ -37783,7 +37783,7 @@
         <v>16</v>
       </c>
       <c r="G983">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H983">
         <v>64</v>
@@ -37815,7 +37815,7 @@
         <v>19</v>
       </c>
       <c r="G984">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H984">
         <v>64</v>
@@ -37847,7 +37847,7 @@
         <v>22</v>
       </c>
       <c r="G985">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H985">
         <v>42</v>
@@ -37879,7 +37879,7 @@
         <v>25</v>
       </c>
       <c r="G986">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H986">
         <v>76</v>
@@ -37911,7 +37911,7 @@
         <v>11</v>
       </c>
       <c r="G987">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H987">
         <v>55</v>
@@ -37943,7 +37943,7 @@
         <v>16</v>
       </c>
       <c r="G988">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H988">
         <v>77</v>
@@ -37975,7 +37975,7 @@
         <v>19</v>
       </c>
       <c r="G989">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H989">
         <v>42</v>
@@ -38007,7 +38007,7 @@
         <v>22</v>
       </c>
       <c r="G990">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H990">
         <v>90</v>
@@ -38039,7 +38039,7 @@
         <v>25</v>
       </c>
       <c r="G991">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H991">
         <v>33</v>
@@ -38071,7 +38071,7 @@
         <v>11</v>
       </c>
       <c r="G992">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H992">
         <v>61</v>
@@ -38103,7 +38103,7 @@
         <v>16</v>
       </c>
       <c r="G993">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H993">
         <v>73</v>
@@ -38135,7 +38135,7 @@
         <v>19</v>
       </c>
       <c r="G994">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H994">
         <v>40</v>
@@ -38167,7 +38167,7 @@
         <v>22</v>
       </c>
       <c r="G995">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H995">
         <v>72</v>
@@ -38199,7 +38199,7 @@
         <v>25</v>
       </c>
       <c r="G996">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H996">
         <v>33</v>
@@ -38231,7 +38231,7 @@
         <v>11</v>
       </c>
       <c r="G997">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H997">
         <v>31</v>
@@ -38263,7 +38263,7 @@
         <v>16</v>
       </c>
       <c r="G998">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H998">
         <v>42</v>
@@ -38295,7 +38295,7 @@
         <v>19</v>
       </c>
       <c r="G999">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H999">
         <v>86</v>
@@ -38327,7 +38327,7 @@
         <v>22</v>
       </c>
       <c r="G1000">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H1000">
         <v>41</v>
@@ -38359,7 +38359,7 @@
         <v>25</v>
       </c>
       <c r="G1001">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H1001">
         <v>72</v>
@@ -38391,7 +38391,7 @@
         <v>19</v>
       </c>
       <c r="G1002">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H1002">
         <v>74</v>
